--- a/BackTest/2020-01-12 BackTest BSV.xlsx
+++ b/BackTest/2020-01-12 BackTest BSV.xlsx
@@ -1256,14 +1256,20 @@
         <v>171303.3333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>167500</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1291,14 +1297,20 @@
         <v>171256.6666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>167400</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1334,10 +1346,12 @@
       <c r="J27" t="n">
         <v>167800</v>
       </c>
-      <c r="K27" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1371,14 +1385,12 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>167700</v>
-      </c>
-      <c r="K28" t="n">
         <v>167800</v>
       </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -1414,11 +1426,9 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>167500</v>
-      </c>
-      <c r="K29" t="n">
         <v>167800</v>
       </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1459,9 +1469,7 @@
       <c r="J30" t="n">
         <v>167300</v>
       </c>
-      <c r="K30" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1500,11 +1508,9 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>167000</v>
-      </c>
-      <c r="K31" t="n">
-        <v>167800</v>
-      </c>
+        <v>167200</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1545,9 +1551,7 @@
       <c r="J32" t="n">
         <v>167100</v>
       </c>
-      <c r="K32" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1586,11 +1590,9 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>167200</v>
-      </c>
-      <c r="K33" t="n">
-        <v>167800</v>
-      </c>
+        <v>167100</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1629,11 +1631,9 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>167900</v>
-      </c>
-      <c r="K34" t="n">
         <v>167800</v>
       </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1672,11 +1672,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>168800</v>
-      </c>
-      <c r="K35" t="n">
-        <v>167800</v>
-      </c>
+        <v>168400</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1715,11 +1713,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>169700</v>
-      </c>
-      <c r="K36" t="n">
-        <v>167800</v>
-      </c>
+        <v>169900</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1758,11 +1754,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>170000</v>
-      </c>
-      <c r="K37" t="n">
-        <v>167800</v>
-      </c>
+        <v>169200</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1795,17 +1789,13 @@
         <v>170650</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>170000</v>
-      </c>
-      <c r="K38" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1838,17 +1828,13 @@
         <v>170578.3333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>169800</v>
-      </c>
-      <c r="K39" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1887,9 +1873,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1928,9 +1912,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1969,9 +1951,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2010,9 +1990,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2051,9 +2029,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2092,9 +2068,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2127,17 +2101,13 @@
         <v>170035</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>169000</v>
-      </c>
-      <c r="K46" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2170,17 +2140,13 @@
         <v>169946.6666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>168500</v>
-      </c>
-      <c r="K47" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2213,17 +2179,13 @@
         <v>169855</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>168400</v>
-      </c>
-      <c r="K48" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2256,17 +2218,13 @@
         <v>169775</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>168400</v>
-      </c>
-      <c r="K49" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2299,17 +2257,13 @@
         <v>169700</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>168600</v>
-      </c>
-      <c r="K50" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2342,17 +2296,13 @@
         <v>169618.3333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>168700</v>
-      </c>
-      <c r="K51" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2385,17 +2335,13 @@
         <v>169543.3333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>168600</v>
-      </c>
-      <c r="K52" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2428,17 +2374,13 @@
         <v>169451.6666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>168700</v>
-      </c>
-      <c r="K53" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2471,17 +2413,13 @@
         <v>169380</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>168900</v>
-      </c>
-      <c r="K54" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2514,17 +2452,13 @@
         <v>169308.3333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>168700</v>
-      </c>
-      <c r="K55" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2557,17 +2491,13 @@
         <v>169240</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>168900</v>
-      </c>
-      <c r="K56" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2600,17 +2530,13 @@
         <v>169183.3333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>169200</v>
-      </c>
-      <c r="K57" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2643,17 +2569,13 @@
         <v>169130</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>169900</v>
-      </c>
-      <c r="K58" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2686,17 +2608,13 @@
         <v>169086.6666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>169700</v>
-      </c>
-      <c r="K59" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2735,9 +2653,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2776,9 +2692,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2817,9 +2731,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2858,9 +2770,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2899,9 +2809,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2940,9 +2848,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2981,9 +2887,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3022,9 +2926,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3063,9 +2965,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3104,9 +3004,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3145,9 +3043,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3186,9 +3082,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3227,9 +3121,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3268,9 +3160,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3309,9 +3199,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3350,9 +3238,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3391,9 +3277,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3432,9 +3316,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3473,9 +3355,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3514,9 +3394,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3555,9 +3433,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3596,9 +3472,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3637,9 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3678,9 +3550,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3719,9 +3589,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3760,9 +3628,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3801,9 +3667,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3842,9 +3706,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3883,9 +3745,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3924,9 +3784,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3965,9 +3823,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4006,9 +3862,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4047,9 +3901,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4088,9 +3940,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4129,9 +3979,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4170,9 +4018,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4211,9 +4057,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4252,9 +4096,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4293,9 +4135,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4334,9 +4174,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4375,9 +4213,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4416,9 +4252,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4457,9 +4291,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4498,9 +4330,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4539,9 +4369,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4580,9 +4408,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4621,9 +4447,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4662,9 +4486,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4697,17 +4519,13 @@
         <v>169915</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>168300</v>
-      </c>
-      <c r="K108" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4740,17 +4558,13 @@
         <v>169908.3333333333</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>167600</v>
-      </c>
-      <c r="K109" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4783,17 +4597,13 @@
         <v>169891.6666666667</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>168000</v>
-      </c>
-      <c r="K110" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4826,17 +4636,13 @@
         <v>169883.3333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>168100</v>
-      </c>
-      <c r="K111" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4869,17 +4675,13 @@
         <v>169866.6666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>168100</v>
-      </c>
-      <c r="K112" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4912,17 +4714,13 @@
         <v>169855</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>167800</v>
-      </c>
-      <c r="K113" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4955,17 +4753,13 @@
         <v>169836.6666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>167600</v>
-      </c>
-      <c r="K114" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4998,17 +4792,13 @@
         <v>169815</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>167600</v>
-      </c>
-      <c r="K115" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5041,17 +4831,13 @@
         <v>169785</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>167300</v>
-      </c>
-      <c r="K116" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5084,17 +4870,13 @@
         <v>169743.3333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>167300</v>
-      </c>
-      <c r="K117" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5127,17 +4909,13 @@
         <v>169701.6666666667</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>167200</v>
-      </c>
-      <c r="K118" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5170,17 +4948,13 @@
         <v>169660</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>167200</v>
-      </c>
-      <c r="K119" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5213,17 +4987,13 @@
         <v>169605</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>167100</v>
-      </c>
-      <c r="K120" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5256,17 +5026,13 @@
         <v>169536.6666666667</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>166400</v>
-      </c>
-      <c r="K121" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5299,17 +5065,13 @@
         <v>169451.6666666667</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>166700</v>
-      </c>
-      <c r="K122" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5342,17 +5104,13 @@
         <v>169371.6666666667</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>166700</v>
-      </c>
-      <c r="K123" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5385,17 +5143,13 @@
         <v>169285</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>166700</v>
-      </c>
-      <c r="K124" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5428,17 +5182,13 @@
         <v>169223.3333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>167300</v>
-      </c>
-      <c r="K125" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5471,17 +5221,13 @@
         <v>169171.6666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>168000</v>
-      </c>
-      <c r="K126" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5514,17 +5260,13 @@
         <v>169110</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>167900</v>
-      </c>
-      <c r="K127" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5557,17 +5299,13 @@
         <v>169040</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>168100</v>
-      </c>
-      <c r="K128" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5600,17 +5338,13 @@
         <v>168980</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>167400</v>
-      </c>
-      <c r="K129" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5643,17 +5377,13 @@
         <v>168915</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>166900</v>
-      </c>
-      <c r="K130" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5686,17 +5416,13 @@
         <v>168870</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>167500</v>
-      </c>
-      <c r="K131" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5729,17 +5455,13 @@
         <v>168828.3333333333</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>167700</v>
-      </c>
-      <c r="K132" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5772,17 +5494,13 @@
         <v>168796.6666666667</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>167800</v>
-      </c>
-      <c r="K133" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5815,17 +5533,13 @@
         <v>168765</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>168000</v>
-      </c>
-      <c r="K134" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5858,17 +5572,13 @@
         <v>168723.3333333333</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>168400</v>
-      </c>
-      <c r="K135" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5901,17 +5611,13 @@
         <v>168675</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>168200</v>
-      </c>
-      <c r="K136" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5944,17 +5650,13 @@
         <v>168620</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>167300</v>
-      </c>
-      <c r="K137" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5987,17 +5689,13 @@
         <v>168580</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>168000</v>
-      </c>
-      <c r="K138" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6030,17 +5728,13 @@
         <v>168521.6666666667</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>167400</v>
-      </c>
-      <c r="K139" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6073,17 +5767,13 @@
         <v>168445</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>167900</v>
-      </c>
-      <c r="K140" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6116,17 +5806,13 @@
         <v>168393.3333333333</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>168000</v>
-      </c>
-      <c r="K141" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6159,17 +5845,13 @@
         <v>168323.3333333333</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>168100</v>
-      </c>
-      <c r="K142" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6202,17 +5884,13 @@
         <v>168270</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>168000</v>
-      </c>
-      <c r="K143" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6245,17 +5923,13 @@
         <v>168220</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>168000</v>
-      </c>
-      <c r="K144" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6288,17 +5962,13 @@
         <v>168168.3333333333</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>168100</v>
-      </c>
-      <c r="K145" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6331,17 +6001,13 @@
         <v>168123.3333333333</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>168500</v>
-      </c>
-      <c r="K146" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6374,17 +6040,13 @@
         <v>168083.3333333333</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>168600</v>
-      </c>
-      <c r="K147" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6417,17 +6079,13 @@
         <v>168045</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>168800</v>
-      </c>
-      <c r="K148" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6460,17 +6118,13 @@
         <v>168025</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>168200</v>
-      </c>
-      <c r="K149" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6503,17 +6157,13 @@
         <v>168015</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>168100</v>
-      </c>
-      <c r="K150" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6546,17 +6196,13 @@
         <v>168020</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>167800</v>
-      </c>
-      <c r="K151" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6589,17 +6235,13 @@
         <v>168008.3333333333</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>167900</v>
-      </c>
-      <c r="K152" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6632,17 +6274,13 @@
         <v>167996.6666666667</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>168200</v>
-      </c>
-      <c r="K153" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6675,17 +6313,13 @@
         <v>167978.3333333333</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>168300</v>
-      </c>
-      <c r="K154" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6718,17 +6352,13 @@
         <v>167965</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>167400</v>
-      </c>
-      <c r="K155" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6761,17 +6391,13 @@
         <v>167965</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>167800</v>
-      </c>
-      <c r="K156" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6804,17 +6430,13 @@
         <v>167950</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>167600</v>
-      </c>
-      <c r="K157" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6847,17 +6469,13 @@
         <v>167943.3333333333</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>168000</v>
-      </c>
-      <c r="K158" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6890,17 +6508,13 @@
         <v>167940</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>168900</v>
-      </c>
-      <c r="K159" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6933,17 +6547,13 @@
         <v>167945</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>168800</v>
-      </c>
-      <c r="K160" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6976,17 +6586,13 @@
         <v>167955</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>169300</v>
-      </c>
-      <c r="K161" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7019,17 +6625,13 @@
         <v>167961.6666666667</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>168700</v>
-      </c>
-      <c r="K162" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7062,17 +6664,13 @@
         <v>167965</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>169000</v>
-      </c>
-      <c r="K163" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7105,17 +6703,13 @@
         <v>167968.3333333333</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>169000</v>
-      </c>
-      <c r="K164" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7148,17 +6742,13 @@
         <v>167966.6666666667</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>168400</v>
-      </c>
-      <c r="K165" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7191,17 +6781,13 @@
         <v>167973.3333333333</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>169000</v>
-      </c>
-      <c r="K166" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7234,17 +6820,13 @@
         <v>167985</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>168500</v>
-      </c>
-      <c r="K167" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7277,17 +6859,13 @@
         <v>168001.6666666667</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>168900</v>
-      </c>
-      <c r="K168" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7320,17 +6898,13 @@
         <v>168010</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>168500</v>
-      </c>
-      <c r="K169" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7363,17 +6937,13 @@
         <v>168010</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>168300</v>
-      </c>
-      <c r="K170" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7406,17 +6976,13 @@
         <v>168016.6666666667</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>168500</v>
-      </c>
-      <c r="K171" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7449,17 +7015,13 @@
         <v>168026.6666666667</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>168800</v>
-      </c>
-      <c r="K172" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7492,17 +7054,13 @@
         <v>168035</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>168100</v>
-      </c>
-      <c r="K173" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7535,17 +7093,13 @@
         <v>168048.3333333333</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>168400</v>
-      </c>
-      <c r="K174" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7578,17 +7132,13 @@
         <v>168053.3333333333</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>168400</v>
-      </c>
-      <c r="K175" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7621,17 +7171,13 @@
         <v>168061.6666666667</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>167800</v>
-      </c>
-      <c r="K176" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7664,17 +7210,13 @@
         <v>168070</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>168200</v>
-      </c>
-      <c r="K177" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7707,17 +7249,13 @@
         <v>168076.6666666667</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>167700</v>
-      </c>
-      <c r="K178" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7750,17 +7288,13 @@
         <v>168091.6666666667</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>167500</v>
-      </c>
-      <c r="K179" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7793,17 +7327,13 @@
         <v>168110</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>167900</v>
-      </c>
-      <c r="K180" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7836,17 +7366,13 @@
         <v>168148.3333333333</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>167700</v>
-      </c>
-      <c r="K181" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7879,17 +7405,13 @@
         <v>168163.3333333333</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>167600</v>
-      </c>
-      <c r="K182" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7922,17 +7444,13 @@
         <v>168190</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>167600</v>
-      </c>
-      <c r="K183" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7965,17 +7483,13 @@
         <v>168206.6666666667</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>167800</v>
-      </c>
-      <c r="K184" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8008,17 +7522,13 @@
         <v>168206.6666666667</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>167700</v>
-      </c>
-      <c r="K185" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8051,17 +7561,13 @@
         <v>168210</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>168200</v>
-      </c>
-      <c r="K186" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8094,17 +7600,13 @@
         <v>168198.3333333333</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>167500</v>
-      </c>
-      <c r="K187" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8137,17 +7639,13 @@
         <v>168193.3333333333</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>167200</v>
-      </c>
-      <c r="K188" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8180,17 +7678,13 @@
         <v>168200</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>167500</v>
-      </c>
-      <c r="K189" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8223,17 +7717,13 @@
         <v>168206.6666666667</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>166600</v>
-      </c>
-      <c r="K190" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8266,17 +7756,13 @@
         <v>168203.3333333333</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>167600</v>
-      </c>
-      <c r="K191" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8309,17 +7795,13 @@
         <v>168186.6666666667</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>167700</v>
-      </c>
-      <c r="K192" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8352,17 +7834,13 @@
         <v>168163.3333333333</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>167500</v>
-      </c>
-      <c r="K193" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8395,17 +7873,13 @@
         <v>168140</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>167000</v>
-      </c>
-      <c r="K194" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8438,17 +7912,13 @@
         <v>168128.3333333333</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>167000</v>
-      </c>
-      <c r="K195" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8481,17 +7951,13 @@
         <v>168121.6666666667</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>167400</v>
-      </c>
-      <c r="K196" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8524,17 +7990,13 @@
         <v>168116.6666666667</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>167100</v>
-      </c>
-      <c r="K197" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8567,17 +8029,13 @@
         <v>168095</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>167100</v>
-      </c>
-      <c r="K198" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8610,17 +8068,13 @@
         <v>168085</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>166800</v>
-      </c>
-      <c r="K199" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8653,17 +8107,13 @@
         <v>168065</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>166800</v>
-      </c>
-      <c r="K200" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8696,17 +8146,13 @@
         <v>168050</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>167100</v>
-      </c>
-      <c r="K201" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8739,17 +8185,13 @@
         <v>168048.3333333333</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>167100</v>
-      </c>
-      <c r="K202" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8782,17 +8224,13 @@
         <v>168033.3333333333</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>167100</v>
-      </c>
-      <c r="K203" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8825,17 +8263,13 @@
         <v>168015</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>167100</v>
-      </c>
-      <c r="K204" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8868,17 +8302,13 @@
         <v>167993.3333333333</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>167100</v>
-      </c>
-      <c r="K205" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8911,17 +8341,13 @@
         <v>167965</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>166800</v>
-      </c>
-      <c r="K206" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8954,17 +8380,13 @@
         <v>167940</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>166700</v>
-      </c>
-      <c r="K207" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8997,17 +8419,13 @@
         <v>167913.3333333333</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>167100</v>
-      </c>
-      <c r="K208" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9040,17 +8458,13 @@
         <v>167895</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>167100</v>
-      </c>
-      <c r="K209" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9083,17 +8497,13 @@
         <v>167886.6666666667</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>167900</v>
-      </c>
-      <c r="K210" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9126,17 +8536,13 @@
         <v>167866.6666666667</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>167200</v>
-      </c>
-      <c r="K211" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9169,17 +8575,13 @@
         <v>167838.3333333333</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>166700</v>
-      </c>
-      <c r="K212" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9212,17 +8614,13 @@
         <v>167818.3333333333</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>166900</v>
-      </c>
-      <c r="K213" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9255,17 +8653,13 @@
         <v>167801.6666666667</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>167000</v>
-      </c>
-      <c r="K214" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9298,17 +8692,13 @@
         <v>167778.3333333333</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>167000</v>
-      </c>
-      <c r="K215" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9341,17 +8731,13 @@
         <v>167746.6666666667</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>167000</v>
-      </c>
-      <c r="K216" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9384,17 +8770,13 @@
         <v>167735</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>167500</v>
-      </c>
-      <c r="K217" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9427,17 +8809,13 @@
         <v>167711.6666666667</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>167200</v>
-      </c>
-      <c r="K218" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9470,17 +8848,13 @@
         <v>167690</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>167600</v>
-      </c>
-      <c r="K219" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9513,17 +8887,13 @@
         <v>167660</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>167500</v>
-      </c>
-      <c r="K220" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9556,17 +8926,13 @@
         <v>167630</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>167400</v>
-      </c>
-      <c r="K221" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9599,17 +8965,13 @@
         <v>167605</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>167500</v>
-      </c>
-      <c r="K222" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9642,17 +9004,13 @@
         <v>167585</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>167600</v>
-      </c>
-      <c r="K223" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9685,17 +9043,13 @@
         <v>167565</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>168000</v>
-      </c>
-      <c r="K224" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9728,17 +9082,13 @@
         <v>167555</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>167800</v>
-      </c>
-      <c r="K225" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9771,17 +9121,13 @@
         <v>167531.6666666667</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>167400</v>
-      </c>
-      <c r="K226" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9814,17 +9160,13 @@
         <v>167511.6666666667</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>167800</v>
-      </c>
-      <c r="K227" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9857,17 +9199,13 @@
         <v>167491.6666666667</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>167700</v>
-      </c>
-      <c r="K228" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9900,17 +9238,13 @@
         <v>167478.3333333333</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>167700</v>
-      </c>
-      <c r="K229" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9943,17 +9277,13 @@
         <v>167463.3333333333</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>167200</v>
-      </c>
-      <c r="K230" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9986,17 +9316,13 @@
         <v>167445</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>167500</v>
-      </c>
-      <c r="K231" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10029,17 +9355,13 @@
         <v>167416.6666666667</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>167000</v>
-      </c>
-      <c r="K232" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10072,17 +9394,13 @@
         <v>167398.3333333333</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>166600</v>
-      </c>
-      <c r="K233" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10115,17 +9433,13 @@
         <v>167375</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>167000</v>
-      </c>
-      <c r="K234" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10158,17 +9472,13 @@
         <v>167360</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>166800</v>
-      </c>
-      <c r="K235" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10201,17 +9511,13 @@
         <v>167346.6666666667</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>167000</v>
-      </c>
-      <c r="K236" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10244,17 +9550,13 @@
         <v>167335</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>167000</v>
-      </c>
-      <c r="K237" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10287,17 +9589,13 @@
         <v>167320</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>167000</v>
-      </c>
-      <c r="K238" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10330,17 +9628,13 @@
         <v>167290</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>167000</v>
-      </c>
-      <c r="K239" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10373,17 +9667,13 @@
         <v>167273.3333333333</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>166800</v>
-      </c>
-      <c r="K240" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10416,17 +9706,13 @@
         <v>167245</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>167000</v>
-      </c>
-      <c r="K241" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10459,17 +9745,13 @@
         <v>167241.6666666667</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>167400</v>
-      </c>
-      <c r="K242" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10502,17 +9784,13 @@
         <v>167216.6666666667</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>166800</v>
-      </c>
-      <c r="K243" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10545,17 +9823,13 @@
         <v>167208.3333333333</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>167300</v>
-      </c>
-      <c r="K244" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10588,17 +9862,13 @@
         <v>167203.3333333333</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>167300</v>
-      </c>
-      <c r="K245" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10631,17 +9901,13 @@
         <v>167188.3333333333</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>167300</v>
-      </c>
-      <c r="K246" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10674,17 +9940,13 @@
         <v>167191.6666666667</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>167300</v>
-      </c>
-      <c r="K247" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10717,17 +9979,13 @@
         <v>167185</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>167000</v>
-      </c>
-      <c r="K248" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10760,17 +10018,13 @@
         <v>167168.3333333333</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>166700</v>
-      </c>
-      <c r="K249" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10803,17 +10057,13 @@
         <v>167161.6666666667</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>166500</v>
-      </c>
-      <c r="K250" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10846,17 +10096,13 @@
         <v>167145</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>166500</v>
-      </c>
-      <c r="K251" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10889,17 +10135,13 @@
         <v>167143.3333333333</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>166900</v>
-      </c>
-      <c r="K252" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10932,17 +10174,13 @@
         <v>167146.6666666667</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>166600</v>
-      </c>
-      <c r="K253" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10975,17 +10213,13 @@
         <v>167133.3333333333</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>166500</v>
-      </c>
-      <c r="K254" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11018,17 +10252,13 @@
         <v>167121.6666666667</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>166100</v>
-      </c>
-      <c r="K255" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11061,17 +10291,13 @@
         <v>167110</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>166400</v>
-      </c>
-      <c r="K256" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11104,17 +10330,13 @@
         <v>167098.3333333333</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>166800</v>
-      </c>
-      <c r="K257" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11147,17 +10369,13 @@
         <v>167091.6666666667</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>167000</v>
-      </c>
-      <c r="K258" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11190,17 +10408,13 @@
         <v>167090</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>167000</v>
-      </c>
-      <c r="K259" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11233,17 +10447,13 @@
         <v>167083.3333333333</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>166400</v>
-      </c>
-      <c r="K260" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11276,17 +10486,13 @@
         <v>167076.6666666667</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>166600</v>
-      </c>
-      <c r="K261" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11319,17 +10525,13 @@
         <v>167071.6666666667</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>166800</v>
-      </c>
-      <c r="K262" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11362,17 +10564,13 @@
         <v>167060</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>166400</v>
-      </c>
-      <c r="K263" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11405,17 +10603,13 @@
         <v>167048.3333333333</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>166500</v>
-      </c>
-      <c r="K264" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11448,17 +10642,13 @@
         <v>167046.6666666667</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>166600</v>
-      </c>
-      <c r="K265" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11491,17 +10681,13 @@
         <v>167046.6666666667</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>166500</v>
-      </c>
-      <c r="K266" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11534,17 +10720,13 @@
         <v>167043.3333333333</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>166800</v>
-      </c>
-      <c r="K267" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11577,17 +10759,13 @@
         <v>167046.6666666667</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>167600</v>
-      </c>
-      <c r="K268" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11620,17 +10798,13 @@
         <v>167056.6666666667</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>167400</v>
-      </c>
-      <c r="K269" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11663,17 +10837,13 @@
         <v>167066.6666666667</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>167900</v>
-      </c>
-      <c r="K270" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11706,17 +10876,13 @@
         <v>167083.3333333333</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>168000</v>
-      </c>
-      <c r="K271" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11749,17 +10915,13 @@
         <v>167113.3333333333</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>168300</v>
-      </c>
-      <c r="K272" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11792,17 +10954,13 @@
         <v>167138.3333333333</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>168600</v>
-      </c>
-      <c r="K273" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11835,17 +10993,13 @@
         <v>167163.3333333333</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>168600</v>
-      </c>
-      <c r="K274" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11878,17 +11032,13 @@
         <v>167195</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>168700</v>
-      </c>
-      <c r="K275" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11921,17 +11071,13 @@
         <v>167226.6666666667</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>169000</v>
-      </c>
-      <c r="K276" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11964,17 +11110,13 @@
         <v>167251.6666666667</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>169000</v>
-      </c>
-      <c r="K277" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12007,17 +11149,13 @@
         <v>167281.6666666667</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>169000</v>
-      </c>
-      <c r="K278" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12050,17 +11188,13 @@
         <v>167313.3333333333</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>169600</v>
-      </c>
-      <c r="K279" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12093,17 +11227,13 @@
         <v>167355</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>169900</v>
-      </c>
-      <c r="K280" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12136,17 +11266,13 @@
         <v>167396.6666666667</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>170000</v>
-      </c>
-      <c r="K281" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12179,17 +11305,13 @@
         <v>167446.6666666667</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>170500</v>
-      </c>
-      <c r="K282" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12222,17 +11344,13 @@
         <v>167500</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>170500</v>
-      </c>
-      <c r="K283" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12265,17 +11383,13 @@
         <v>167556.6666666667</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>170900</v>
-      </c>
-      <c r="K284" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12314,9 +11428,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12355,9 +11467,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12396,9 +11506,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12437,9 +11545,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12478,9 +11584,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12519,9 +11623,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12560,9 +11662,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12601,9 +11701,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12642,9 +11740,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12683,9 +11779,7 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12724,9 +11818,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12765,9 +11857,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12806,9 +11896,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12847,9 +11935,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12888,9 +11974,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12929,9 +12013,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12970,9 +12052,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13011,9 +12091,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13052,9 +12130,7 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13090,20 +12166,16 @@
         <v>0</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>167800</v>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -13131,17 +12203,11 @@
         <v>0</v>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -13172,17 +12238,11 @@
         <v>0</v>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -13216,14 +12276,8 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -13257,14 +12311,8 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -13298,14 +12346,8 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -13339,14 +12381,8 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -13380,14 +12416,8 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -13421,14 +12451,8 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -13462,14 +12486,8 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -13503,14 +12521,8 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -13544,14 +12556,8 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -13585,14 +12591,8 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -13626,14 +12626,8 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -13667,14 +12661,8 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -13708,14 +12696,8 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -13749,14 +12731,8 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -13790,14 +12766,8 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -13831,14 +12801,8 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -13872,14 +12836,8 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -13913,14 +12871,8 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -13954,14 +12906,8 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -13995,14 +12941,8 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -14036,14 +12976,8 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -14074,17 +13008,11 @@
         <v>0</v>
       </c>
       <c r="I328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -14118,14 +13046,8 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -14159,14 +13081,8 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -14200,14 +13116,8 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -14238,19 +13148,13 @@
         <v>0</v>
       </c>
       <c r="I332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>167800</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
-        <v>1.126108462455304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -14314,7 +13218,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
@@ -14349,7 +13253,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
@@ -14384,7 +13288,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
@@ -14419,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
@@ -14489,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
@@ -14524,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
@@ -14559,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
@@ -14594,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
@@ -14629,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
@@ -14664,7 +13568,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
@@ -14734,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest BSV.xlsx
+++ b/BackTest/2020-01-12 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3157,11 +3157,17 @@
         <v>-3742.54707394</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>167500</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3196,17 @@
         <v>-3606.47597394</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>167400</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3235,17 @@
         <v>-3606.47597394</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>167800</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3274,17 @@
         <v>-3606.47597394</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>167800</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3313,17 @@
         <v>-3623.84967394</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>167800</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3352,17 @@
         <v>-3638.72547394</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>167300</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3391,17 @@
         <v>-3796.52987394</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>167200</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3430,17 @@
         <v>-3796.52987394</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>167100</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3469,17 @@
         <v>-3776.53367394</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>167100</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,15 +3508,17 @@
         <v>-3462.34440846</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>167800</v>
       </c>
-      <c r="J93" t="n">
-        <v>167800</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,15 +3547,15 @@
         <v>-3396.32730935</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>167800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>168400</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -3533,12 +3589,10 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -3573,7 +3627,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3606,7 +3664,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3639,7 +3701,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3672,7 +3738,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3705,7 +3775,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3738,7 +3812,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3771,7 +3849,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3804,7 +3886,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3837,7 +3923,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3870,7 +3960,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3903,7 +3997,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3936,7 +4034,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3969,7 +4071,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4002,7 +4108,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4035,7 +4145,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4068,7 +4182,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4101,7 +4219,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4134,7 +4256,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4167,7 +4293,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4200,7 +4330,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4233,7 +4367,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4266,7 +4404,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4299,7 +4441,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4332,7 +4478,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4365,7 +4515,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4398,7 +4552,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4431,7 +4589,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4464,7 +4626,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4497,7 +4663,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4530,7 +4700,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4563,7 +4737,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4596,7 +4774,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4629,7 +4811,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4662,7 +4848,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4695,7 +4885,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +4922,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4761,7 +4959,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4794,7 +4996,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4827,7 +5033,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4860,7 +5070,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4893,7 +5107,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4926,7 +5144,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4959,7 +5181,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4992,7 +5218,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5025,7 +5255,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5058,7 +5292,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5091,7 +5329,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5124,7 +5366,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5157,7 +5403,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5190,7 +5440,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5223,7 +5477,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5256,7 +5514,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5289,7 +5551,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5322,7 +5588,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5355,7 +5625,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5388,7 +5662,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5421,7 +5699,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5454,7 +5736,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5487,7 +5773,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5520,7 +5810,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5553,7 +5847,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5586,7 +5884,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5615,11 +5917,17 @@
         <v>-3231.300040219999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>169000</v>
+      </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5648,11 +5956,17 @@
         <v>-3250.704040219999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>169100</v>
+      </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5685,7 +5999,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5718,7 +6036,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5751,7 +6073,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5784,7 +6110,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5817,7 +6147,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5846,11 +6180,17 @@
         <v>-3172.05594022</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>168500</v>
+      </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5879,11 +6219,17 @@
         <v>-3244.99364022</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>168600</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5912,11 +6258,17 @@
         <v>-3315.90604022</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>168300</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5945,11 +6297,17 @@
         <v>-3233.80584022</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>167900</v>
+      </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5978,11 +6336,17 @@
         <v>-3233.80584022</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>168000</v>
+      </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6011,11 +6375,17 @@
         <v>-3152.78584022</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>168000</v>
+      </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6044,11 +6414,17 @@
         <v>-3158.73724022</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>168100</v>
+      </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6077,11 +6453,17 @@
         <v>-3210.02984022</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>167900</v>
+      </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6110,11 +6492,17 @@
         <v>-3210.02984022</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>167600</v>
+      </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6143,11 +6531,17 @@
         <v>-3210.02984022</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>167600</v>
+      </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6176,11 +6570,17 @@
         <v>-3210.05524022</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>167600</v>
+      </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6209,11 +6609,17 @@
         <v>-3221.03784022</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>167300</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6242,11 +6648,17 @@
         <v>-3221.03784022</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>167100</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6275,11 +6687,17 @@
         <v>-3220.86614022</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>167100</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6308,7 +6726,7 @@
         <v>-3481.43984022</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>167200</v>
@@ -6316,7 +6734,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L179" t="n">
@@ -6347,7 +6765,7 @@
         <v>-3517.79284022</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>166700</v>
@@ -6386,7 +6804,7 @@
         <v>-3491.67694022</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>166400</v>
@@ -6425,7 +6843,7 @@
         <v>-3491.67694022</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>166700</v>
@@ -6464,7 +6882,7 @@
         <v>-3249.43226772</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>166700</v>
@@ -6503,7 +6921,7 @@
         <v>-3232.67482349</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>166800</v>
@@ -6542,7 +6960,7 @@
         <v>-3217.4617223</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>167600</v>
@@ -6581,7 +6999,7 @@
         <v>-3221.4314223</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>168000</v>
@@ -6620,7 +7038,7 @@
         <v>-3353.8547223</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>167600</v>
@@ -6659,7 +7077,7 @@
         <v>-3369.1277223</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>167500</v>
@@ -6698,7 +7116,7 @@
         <v>-3392.3833223</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>167100</v>
@@ -6737,7 +7155,7 @@
         <v>-3332.36171164</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>166800</v>
@@ -6776,7 +7194,7 @@
         <v>-3286.16951164</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>168000</v>
@@ -6815,9 +7233,11 @@
         <v>-3252.48651164</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>168100</v>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -6852,7 +7272,7 @@
         <v>-3101.07191164</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>168300</v>
@@ -6891,9 +7311,11 @@
         <v>-3149.42061164</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>168400</v>
+      </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -6928,9 +7350,11 @@
         <v>-3200.36051164</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>168200</v>
+      </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -6965,9 +7389,11 @@
         <v>-3231.36051164</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>167800</v>
+      </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7002,9 +7428,11 @@
         <v>-3118.27691164</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>167300</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7039,9 +7467,11 @@
         <v>-3144.50091164</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>168400</v>
+      </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7076,7 +7506,7 @@
         <v>-3100.17231164</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>167700</v>
@@ -7115,7 +7545,7 @@
         <v>-3100.17231164</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>168000</v>
@@ -7154,7 +7584,7 @@
         <v>-3191.6362639</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>168000</v>
@@ -7193,9 +7623,11 @@
         <v>-3186.7354639</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>167200</v>
+      </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7230,9 +7662,11 @@
         <v>-3134.687663900001</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>168000</v>
+      </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
@@ -7267,9 +7701,11 @@
         <v>-3164.441663900001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>168200</v>
+      </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -7304,9 +7740,11 @@
         <v>-3145.1893639</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>168100</v>
+      </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -7341,9 +7779,11 @@
         <v>-3104.46476723</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>168500</v>
+      </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -8340,9 +8780,11 @@
         <v>-2883.394569000001</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>168100</v>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8451,9 +8893,11 @@
         <v>-2982.760669000001</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>167800</v>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -8525,9 +8969,11 @@
         <v>-3033.741269000001</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>167500</v>
+      </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -8562,9 +9008,11 @@
         <v>-3034.601269000001</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>168100</v>
+      </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -8599,9 +9047,11 @@
         <v>-3005.005369000001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>167800</v>
+      </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
@@ -8636,9 +9086,11 @@
         <v>-3005.035369000001</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>168700</v>
+      </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -8673,9 +9125,11 @@
         <v>-2931.097869000001</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>167600</v>
+      </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -8710,9 +9164,11 @@
         <v>-2934.441269000001</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>168300</v>
+      </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
@@ -8747,9 +9203,11 @@
         <v>-2939.125869000001</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>167800</v>
+      </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
@@ -8784,9 +9242,11 @@
         <v>-2938.875869000001</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>167600</v>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
@@ -8821,9 +9281,11 @@
         <v>-2942.314069000001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>168200</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -8858,9 +9320,11 @@
         <v>-2942.054069000001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>166900</v>
+      </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -8895,9 +9359,11 @@
         <v>-2931.954069000001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>167200</v>
+      </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
@@ -8932,9 +9398,11 @@
         <v>-2933.082469000001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>167500</v>
+      </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -8969,9 +9437,11 @@
         <v>-2931.883469000001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>167200</v>
+      </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
@@ -9006,9 +9476,11 @@
         <v>-3032.126569000001</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>167800</v>
+      </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -9043,9 +9515,11 @@
         <v>-3041.520269000001</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>167100</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9080,9 +9554,11 @@
         <v>-2984.809969000001</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>166900</v>
+      </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
@@ -9117,9 +9593,11 @@
         <v>-2976.701869000001</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>167000</v>
+      </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
@@ -9154,9 +9632,11 @@
         <v>-2992.725769000001</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>167500</v>
+      </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
@@ -9191,9 +9671,11 @@
         <v>-3018.108869000002</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>167400</v>
+      </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
@@ -9228,7 +9710,7 @@
         <v>-3016.748869000001</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>167000</v>
@@ -9267,7 +9749,7 @@
         <v>-3016.748869000001</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>167100</v>
@@ -9306,7 +9788,7 @@
         <v>-3029.220869000002</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>167100</v>
@@ -9345,7 +9827,7 @@
         <v>-3018.087669000001</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>166800</v>
@@ -9384,7 +9866,7 @@
         <v>-3018.087669000001</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>167100</v>
@@ -9423,7 +9905,7 @@
         <v>-3018.087669000001</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>167100</v>
@@ -9462,7 +9944,7 @@
         <v>-3018.087669000001</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>167100</v>
@@ -9501,7 +9983,7 @@
         <v>-3019.648869000001</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>167100</v>
@@ -9540,7 +10022,7 @@
         <v>-3019.648869000001</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>166800</v>
@@ -9579,7 +10061,7 @@
         <v>-3008.760469000002</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>166800</v>
@@ -9618,7 +10100,7 @@
         <v>-3008.760469000002</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>167100</v>
@@ -9657,7 +10139,7 @@
         <v>-2904.903969000002</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>167100</v>
@@ -9696,7 +10178,7 @@
         <v>-2904.903969000002</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>167300</v>
@@ -9735,7 +10217,7 @@
         <v>-2906.476969000002</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>167300</v>
@@ -9774,7 +10256,7 @@
         <v>-2907.135969000002</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>167200</v>
@@ -9813,7 +10295,7 @@
         <v>-2903.605969000002</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>166700</v>
@@ -9852,7 +10334,7 @@
         <v>-2903.605969000002</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>167100</v>
@@ -9891,7 +10373,7 @@
         <v>-2919.629869000002</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>167100</v>
@@ -9930,7 +10412,7 @@
         <v>-2908.779869000002</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>167000</v>
@@ -9969,7 +10451,7 @@
         <v>-2902.462269000002</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>167100</v>
@@ -10008,7 +10490,7 @@
         <v>-2903.248269000002</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>167500</v>
@@ -10047,7 +10529,7 @@
         <v>-2903.028269000002</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>167200</v>
@@ -10086,7 +10568,7 @@
         <v>-2903.098269000002</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>167600</v>
@@ -10125,7 +10607,7 @@
         <v>-2903.098269000002</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>167500</v>
@@ -10164,7 +10646,7 @@
         <v>-2903.098269000002</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>167500</v>
@@ -10203,7 +10685,7 @@
         <v>-2827.382269000002</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>167500</v>
@@ -10242,7 +10724,7 @@
         <v>-2811.223469000002</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>167600</v>
@@ -10281,7 +10763,7 @@
         <v>-2811.223469000002</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>167800</v>
@@ -10320,7 +10802,7 @@
         <v>-2832.898469000002</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>167800</v>
@@ -10359,7 +10841,7 @@
         <v>-2831.928469000003</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>167600</v>
@@ -10398,7 +10880,7 @@
         <v>-2836.992469000003</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>167800</v>
@@ -10437,7 +10919,7 @@
         <v>-2836.992469000003</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>167700</v>
@@ -10476,9 +10958,11 @@
         <v>-2873.842869000002</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>167700</v>
+      </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
@@ -10513,7 +10997,7 @@
         <v>-2858.390469000002</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>167100</v>
@@ -10552,9 +11036,11 @@
         <v>-2912.273669000002</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>167400</v>
+      </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -10589,7 +11075,7 @@
         <v>-2837.135969000003</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>166800</v>
@@ -10628,7 +11114,7 @@
         <v>-2837.135969000003</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>167000</v>
@@ -10667,7 +11153,7 @@
         <v>-2837.135969000003</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>167000</v>
@@ -10706,7 +11192,7 @@
         <v>-2837.135969000003</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>167000</v>
@@ -10745,7 +11231,7 @@
         <v>-2861.994869000003</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>167000</v>
@@ -10784,7 +11270,7 @@
         <v>-2879.408469000003</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>166900</v>
@@ -10823,7 +11309,7 @@
         <v>-2880.371469000003</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>166600</v>
@@ -10862,7 +11348,7 @@
         <v>-2864.347569000003</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>166300</v>
@@ -10901,7 +11387,7 @@
         <v>-2861.927269000003</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>166800</v>
@@ -10940,7 +11426,7 @@
         <v>-2861.667269000002</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>167000</v>
@@ -10979,7 +11465,7 @@
         <v>-2871.667269000002</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>167400</v>
@@ -11018,7 +11504,7 @@
         <v>-2871.387269000002</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>166800</v>
@@ -11057,7 +11543,7 @@
         <v>-2871.387269000002</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>167300</v>
@@ -11096,7 +11582,7 @@
         <v>-2871.387269000002</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>167300</v>
@@ -11135,7 +11621,7 @@
         <v>-2880.421869000002</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>167300</v>
@@ -11174,7 +11660,7 @@
         <v>-2890.372869000002</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>167100</v>
@@ -11213,7 +11699,7 @@
         <v>-2892.460569000002</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>166800</v>
@@ -11252,7 +11738,7 @@
         <v>-2841.560469000002</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>166500</v>
@@ -11291,7 +11777,7 @@
         <v>-2841.560469000002</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>166800</v>
@@ -11330,7 +11816,7 @@
         <v>-2794.305069000002</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>166800</v>
@@ -11369,7 +11855,7 @@
         <v>-2792.055069000002</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>167000</v>
@@ -11408,7 +11894,7 @@
         <v>-3848.447969000003</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>167100</v>
@@ -11447,7 +11933,7 @@
         <v>-3788.670969000003</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>166200</v>
@@ -11486,11 +11972,9 @@
         <v>-3819.844369000003</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="n">
-        <v>166800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -11525,9 +12009,11 @@
         <v>-3839.444569000003</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>166700</v>
+      </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -11562,7 +12048,7 @@
         <v>-3717.468269000003</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>166300</v>
@@ -11601,7 +12087,7 @@
         <v>-3717.188269000002</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>166700</v>
@@ -11640,7 +12126,7 @@
         <v>-3728.843069000002</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>167000</v>
@@ -11679,7 +12165,7 @@
         <v>-3708.243069000002</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>166400</v>
@@ -11718,7 +12204,7 @@
         <v>-3708.042569000002</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>166700</v>
@@ -11757,7 +12243,7 @@
         <v>-3709.042569000002</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>166800</v>
@@ -11796,7 +12282,7 @@
         <v>-3709.042569000002</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>166400</v>
@@ -11835,7 +12321,7 @@
         <v>-3704.950569000002</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>166400</v>
@@ -11874,7 +12360,7 @@
         <v>-3679.050569000002</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>166700</v>
@@ -11913,7 +12399,7 @@
         <v>-3669.821369000002</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>166800</v>
@@ -11952,7 +12438,7 @@
         <v>-3669.421369000002</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>166900</v>
@@ -11991,7 +12477,7 @@
         <v>-3662.824869000002</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>167300</v>
@@ -12030,7 +12516,7 @@
         <v>-3662.824869000002</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>167900</v>
@@ -12069,7 +12555,7 @@
         <v>-3656.902369000002</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
         <v>167900</v>
@@ -12108,9 +12594,11 @@
         <v>-3644.569569000002</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>168200</v>
+      </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
@@ -12145,9 +12633,11 @@
         <v>-3640.571469000002</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>168500</v>
+      </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
@@ -12182,9 +12672,11 @@
         <v>-3640.571469000002</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>168600</v>
+      </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
@@ -12219,9 +12711,11 @@
         <v>-3597.185569000002</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>168600</v>
+      </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
@@ -12256,9 +12750,11 @@
         <v>-3589.258169000002</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>168900</v>
+      </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
@@ -12293,9 +12789,11 @@
         <v>-3589.258169000002</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>169000</v>
+      </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
@@ -12330,9 +12828,11 @@
         <v>-3589.258169000002</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>169000</v>
+      </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
@@ -12367,9 +12867,11 @@
         <v>-3552.319269000001</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>169000</v>
+      </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -14143,7 +14645,7 @@
         <v>712.5444244699994</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14180,7 +14682,7 @@
         <v>590.8810244699994</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14217,7 +14719,7 @@
         <v>590.8810244699994</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14291,7 +14793,7 @@
         <v>9.461891099999377</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14328,7 +14830,7 @@
         <v>468.0086196199994</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14365,7 +14867,7 @@
         <v>612.7387196199993</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14402,7 +14904,7 @@
         <v>745.1429196199992</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14439,7 +14941,7 @@
         <v>1120.151892719999</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14476,7 +14978,7 @@
         <v>849.9435927199993</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14735,7 +15237,7 @@
         <v>1303.321892719999</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15475,7 +15977,7 @@
         <v>2592.39796601</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15586,7 +16088,7 @@
         <v>3415.14656232</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16326,7 +16828,7 @@
         <v>3239.79984887</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16807,7 +17309,7 @@
         <v>3284.62023567</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16844,7 +17346,7 @@
         <v>3543.8960341</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16881,18 +17383,16 @@
         <v>3849.18900204</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L460" t="n">
-        <v>1</v>
-      </c>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="inlineStr"/>
     </row>
     <row r="461">
@@ -16918,15 +17418,11 @@
         <v>4055.85934087</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16955,15 +17451,11 @@
         <v>4240.03724087</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16992,15 +17484,11 @@
         <v>4159.89874087</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17029,15 +17517,11 @@
         <v>4159.89874087</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17066,15 +17550,11 @@
         <v>4390.39714087</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17103,15 +17583,11 @@
         <v>4326.27914087</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17140,15 +17616,11 @@
         <v>4209.73694087</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17181,11 +17653,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17218,11 +17686,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17255,11 +17719,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17292,11 +17752,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17329,11 +17785,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17362,15 +17814,11 @@
         <v>4406.63174087</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17399,15 +17847,11 @@
         <v>4468.287640869999</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17436,15 +17880,11 @@
         <v>4383.62044087</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17473,15 +17913,11 @@
         <v>4285.88624087</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17510,15 +17946,11 @@
         <v>4374.630640869999</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17547,15 +17979,11 @@
         <v>4501.049040869999</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17584,15 +18012,11 @@
         <v>4340.207640869999</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17621,15 +18045,11 @@
         <v>4360.277240869998</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17658,15 +18078,11 @@
         <v>4360.277240869998</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17695,15 +18111,11 @@
         <v>4360.277240869998</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17732,15 +18144,11 @@
         <v>4360.297340869998</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17769,15 +18177,11 @@
         <v>4246.110340869998</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17806,15 +18210,11 @@
         <v>4320.664860549999</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17843,15 +18243,11 @@
         <v>4320.664860549999</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17880,15 +18276,11 @@
         <v>4435.923960549999</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17917,15 +18309,11 @@
         <v>4473.428460549999</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17954,15 +18342,11 @@
         <v>4385.912060549998</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17991,15 +18375,11 @@
         <v>4385.912060549998</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18028,15 +18408,11 @@
         <v>4640.910260549998</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18065,15 +18441,11 @@
         <v>4981.740960549998</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18102,15 +18474,11 @@
         <v>5088.255985409998</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18139,15 +18507,11 @@
         <v>5704.769885409998</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18176,16 +18540,14 @@
         <v>6015.374112679998</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
+      <c r="L495" t="n">
+        <v>1</v>
+      </c>
       <c r="M495" t="inlineStr"/>
     </row>
     <row r="496">
@@ -18211,7 +18573,7 @@
         <v>5793.097711929998</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18244,7 +18606,7 @@
         <v>5879.276711929998</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18277,7 +18639,7 @@
         <v>5711.698311929998</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18310,7 +18672,7 @@
         <v>5463.378111929997</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18343,7 +18705,7 @@
         <v>5296.034711929998</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18376,7 +18738,7 @@
         <v>5193.998711929998</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18541,7 +18903,7 @@
         <v>5090.008860479998</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18574,7 +18936,7 @@
         <v>4912.972059249998</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18607,7 +18969,7 @@
         <v>4680.612759249998</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18640,7 +19002,7 @@
         <v>4448.782359249998</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18673,7 +19035,7 @@
         <v>4618.180759249998</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18706,7 +19068,7 @@
         <v>4509.977559249998</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18739,7 +19101,7 @@
         <v>5049.057701969999</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18772,7 +19134,7 @@
         <v>4996.560101969999</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18805,7 +19167,7 @@
         <v>5332.429307129999</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18838,7 +19200,7 @@
         <v>5200.038112289999</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18871,7 +19233,7 @@
         <v>5200.038112289999</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18904,7 +19266,7 @@
         <v>4992.460912289999</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18937,7 +19299,7 @@
         <v>4992.460912289999</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18970,7 +19332,7 @@
         <v>4794.708604969999</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19003,7 +19365,7 @@
         <v>4666.082204969999</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19036,7 +19398,7 @@
         <v>4549.727304969999</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19069,7 +19431,7 @@
         <v>4481.775804969999</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19102,7 +19464,7 @@
         <v>4209.537404969999</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19168,7 +19530,7 @@
         <v>3614.194504969999</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19234,7 +19596,7 @@
         <v>3453.958661109999</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19300,7 +19662,7 @@
         <v>4087.966678099999</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19333,7 +19695,7 @@
         <v>3919.229978099999</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19366,7 +19728,7 @@
         <v>4074.190360269999</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19432,7 +19794,7 @@
         <v>4144.64186027</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19465,7 +19827,7 @@
         <v>4055.755960269999</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19498,7 +19860,7 @@
         <v>4042.614060269999</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19531,7 +19893,7 @@
         <v>3889.071560269999</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19564,7 +19926,7 @@
         <v>3775.364260269999</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19597,7 +19959,7 @@
         <v>3431.237460269999</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19630,7 +19992,7 @@
         <v>3707.748760269999</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19663,7 +20025,7 @@
         <v>3378.72906027</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19696,7 +20058,7 @@
         <v>3200.015782859999</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19729,7 +20091,7 @@
         <v>2679.068982859999</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19762,7 +20124,7 @@
         <v>2615.879982859999</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19795,7 +20157,7 @@
         <v>2828.525582859999</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19828,7 +20190,7 @@
         <v>2762.12888286</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19861,7 +20223,7 @@
         <v>2829.896896539999</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19894,7 +20256,7 @@
         <v>3009.566996539999</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19960,7 +20322,7 @@
         <v>3087.533679579999</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19993,7 +20355,7 @@
         <v>3133.198679579999</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -21544,7 +21906,7 @@
         <v>3646.918066819998</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21577,7 +21939,7 @@
         <v>3652.487666819998</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21610,7 +21972,7 @@
         <v>3663.543366819998</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21643,7 +22005,7 @@
         <v>3663.543366819998</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21676,7 +22038,7 @@
         <v>3663.543366819998</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21709,7 +22071,7 @@
         <v>3659.888266819998</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21742,7 +22104,7 @@
         <v>3660.682266819998</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22732,7 +23094,7 @@
         <v>3872.418403319998</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22765,7 +23127,7 @@
         <v>3734.288303319998</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22798,7 +23160,7 @@
         <v>3734.288303319998</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22831,7 +23193,7 @@
         <v>4002.938603319998</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22864,7 +23226,7 @@
         <v>3657.276280389998</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22897,7 +23259,7 @@
         <v>3478.113580389998</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22930,7 +23292,7 @@
         <v>3610.412080389998</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22963,7 +23325,7 @@
         <v>3485.591180389998</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22996,7 +23358,7 @@
         <v>3180.190280389998</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23029,7 +23391,7 @@
         <v>3076.410980389998</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23062,7 +23424,7 @@
         <v>2711.252380389998</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23095,7 +23457,7 @@
         <v>2482.355580389998</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23128,7 +23490,7 @@
         <v>2379.208780389998</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23260,7 +23622,7 @@
         <v>1820.189380389998</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23293,7 +23655,7 @@
         <v>1682.768080389998</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23359,7 +23721,7 @@
         <v>1682.768080389998</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -28408,7 +28770,7 @@
         <v>1194.728827929998</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -28441,7 +28803,7 @@
         <v>1188.835827929998</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -28474,7 +28836,7 @@
         <v>1369.219827929998</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -28507,7 +28869,7 @@
         <v>1609.637427929998</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -28540,7 +28902,7 @@
         <v>1609.637427929998</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -32896,7 +33258,7 @@
         <v>1749.122726539997</v>
       </c>
       <c r="H941" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33589,7 +33951,7 @@
         <v>2596.428796699997</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33622,7 +33984,7 @@
         <v>3103.378780339997</v>
       </c>
       <c r="H963" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -34447,7 +34809,7 @@
         <v>2108.916890529997</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34480,7 +34842,7 @@
         <v>2128.864890529997</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34513,7 +34875,7 @@
         <v>1993.954190529997</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -42279,6 +42641,6 @@
       <c r="M1225" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest BSV.xlsx
+++ b/BackTest/2020-01-12 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3157,17 +3157,11 @@
         <v>-3742.54707394</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>167500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3204,7 +3198,7 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3586,9 +3580,11 @@
         <v>-3719.16463867</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>169900</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3660,9 +3656,11 @@
         <v>-3495.90302103</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>169900</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -5917,11 +5915,9 @@
         <v>-3231.300040219999</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>169000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -5956,11 +5952,9 @@
         <v>-3250.704040219999</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>169100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -6143,9 +6137,11 @@
         <v>-3209.40844022</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>168800</v>
+      </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -7818,9 +7814,11 @@
         <v>-3025.25986723</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>168600</v>
+      </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -7855,9 +7853,11 @@
         <v>-3108.20306723</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>168700</v>
+      </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -7892,9 +7892,11 @@
         <v>-3126.85426723</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>168400</v>
+      </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -7929,9 +7931,11 @@
         <v>-3097.14386723</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>167800</v>
+      </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -7966,9 +7970,11 @@
         <v>-3097.14386723</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>168400</v>
+      </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -8003,9 +8009,11 @@
         <v>-3119.87116723</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>168400</v>
+      </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -8040,9 +8048,11 @@
         <v>-3120.62936723</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>168300</v>
+      </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -8077,9 +8087,11 @@
         <v>-3097.42476723</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>168100</v>
+      </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
@@ -8114,9 +8126,11 @@
         <v>-2922.89156723</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>168400</v>
+      </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -8151,9 +8165,11 @@
         <v>-3013.915667230001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>169000</v>
+      </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -8188,9 +8204,11 @@
         <v>-2908.747067230001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>168200</v>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8225,9 +8243,11 @@
         <v>-2908.48706723</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>168600</v>
+      </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -8780,11 +8800,9 @@
         <v>-2883.394569000001</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>168100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8932,9 +8950,11 @@
         <v>-3051.243369000001</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>167600</v>
+      </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -11972,9 +11992,11 @@
         <v>-3819.844369000003</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>166800</v>
+      </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -12204,11 +12226,9 @@
         <v>-3708.042569000002</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>166700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
@@ -12672,11 +12692,9 @@
         <v>-3640.571469000002</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>168600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
@@ -12711,11 +12729,9 @@
         <v>-3597.185569000002</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>168600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
@@ -12750,11 +12766,9 @@
         <v>-3589.258169000002</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>168900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
@@ -12789,11 +12803,9 @@
         <v>-3589.258169000002</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>169000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
@@ -12828,11 +12840,9 @@
         <v>-3589.258169000002</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>169000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
@@ -12867,11 +12877,9 @@
         <v>-3552.319269000001</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>169000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -13757,18 +13765,16 @@
         <v>-1966.698784700001</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
@@ -13794,15 +13800,11 @@
         <v>-1585.073314200001</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13831,15 +13833,11 @@
         <v>-1962.599087720001</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13868,15 +13866,11 @@
         <v>-1849.031187720001</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13905,15 +13899,11 @@
         <v>-2054.836912820001</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13942,15 +13932,11 @@
         <v>-1957.074512820001</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13979,15 +13965,11 @@
         <v>-2206.985412820001</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14016,15 +13998,11 @@
         <v>-2592.054870260001</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14053,15 +14031,11 @@
         <v>-2508.580570260001</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14090,15 +14064,11 @@
         <v>-2225.099816730001</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14127,15 +14097,11 @@
         <v>-2438.763221560001</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14164,15 +14130,11 @@
         <v>-2258.679821560001</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14201,15 +14163,11 @@
         <v>-2140.70219529</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14238,15 +14196,11 @@
         <v>-2105.31169529</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14275,15 +14229,11 @@
         <v>-1961.65075514</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14312,15 +14262,11 @@
         <v>-1748.48606713</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14349,15 +14295,11 @@
         <v>-1428.31017116</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14386,15 +14328,11 @@
         <v>-1664.81777116</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14423,15 +14361,11 @@
         <v>-1574.47701657</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14460,15 +14394,11 @@
         <v>-1254.80301657</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14497,15 +14427,11 @@
         <v>-1453.904987930001</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14534,15 +14460,11 @@
         <v>-512.3966886300005</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14575,11 +14497,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14612,11 +14530,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14649,11 +14563,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14686,11 +14596,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14723,11 +14629,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14760,11 +14662,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14797,11 +14695,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14834,11 +14728,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14871,11 +14761,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14908,11 +14794,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14945,11 +14827,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14982,11 +14860,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15019,11 +14893,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15056,11 +14926,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15093,11 +14959,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15130,11 +14992,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15167,11 +15025,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15204,11 +15058,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15241,11 +15091,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15278,11 +15124,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15315,11 +15157,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15352,11 +15190,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15389,11 +15223,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15426,11 +15256,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15463,11 +15289,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15500,11 +15322,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15537,11 +15355,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15574,11 +15388,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15611,11 +15421,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15648,11 +15454,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15685,11 +15487,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15722,11 +15520,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15759,11 +15553,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +15586,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15833,11 +15619,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15870,11 +15652,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15907,11 +15685,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15944,11 +15718,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15981,11 +15751,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16018,11 +15784,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16055,11 +15817,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16092,11 +15850,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16129,11 +15883,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16166,11 +15916,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16203,11 +15949,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16240,11 +15982,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16277,11 +16015,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16314,11 +16048,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16351,11 +16081,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16388,11 +16114,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16425,11 +16147,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16462,11 +16180,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16499,11 +16213,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16536,11 +16246,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16573,11 +16279,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16610,11 +16312,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16647,11 +16345,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16684,11 +16378,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16721,11 +16411,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16758,11 +16444,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16795,11 +16477,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16832,11 +16510,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16869,11 +16543,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16906,11 +16576,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16943,11 +16609,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16980,11 +16642,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17017,11 +16675,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17054,11 +16708,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17091,11 +16741,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17128,11 +16774,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17165,11 +16807,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17202,11 +16840,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17239,11 +16873,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17276,11 +16906,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17313,11 +16939,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17350,11 +16972,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17383,16 +17001,14 @@
         <v>3849.18900204</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="n">
+        <v>1</v>
+      </c>
       <c r="M460" t="inlineStr"/>
     </row>
     <row r="461">
@@ -17550,7 +17166,7 @@
         <v>4390.39714087</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17583,7 +17199,7 @@
         <v>4326.27914087</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17814,7 +17430,7 @@
         <v>4406.63174087</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17847,7 +17463,7 @@
         <v>4468.287640869999</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17880,7 +17496,7 @@
         <v>4383.62044087</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17913,7 +17529,7 @@
         <v>4285.88624087</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17946,7 +17562,7 @@
         <v>4374.630640869999</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17979,7 +17595,7 @@
         <v>4501.049040869999</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18012,7 +17628,7 @@
         <v>4340.207640869999</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18045,7 +17661,7 @@
         <v>4360.277240869998</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18078,7 +17694,7 @@
         <v>4360.277240869998</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18111,7 +17727,7 @@
         <v>4360.277240869998</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18144,7 +17760,7 @@
         <v>4360.297340869998</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18177,7 +17793,7 @@
         <v>4246.110340869998</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18210,7 +17826,7 @@
         <v>4320.664860549999</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18243,7 +17859,7 @@
         <v>4320.664860549999</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18276,7 +17892,7 @@
         <v>4435.923960549999</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18309,7 +17925,7 @@
         <v>4473.428460549999</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18342,7 +17958,7 @@
         <v>4385.912060549998</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18375,7 +17991,7 @@
         <v>4385.912060549998</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18408,7 +18024,7 @@
         <v>4640.910260549998</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18441,7 +18057,7 @@
         <v>4981.740960549998</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18474,7 +18090,7 @@
         <v>5088.255985409998</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18507,7 +18123,7 @@
         <v>5704.769885409998</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18540,7 +18156,7 @@
         <v>6015.374112679998</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18573,7 +18189,7 @@
         <v>5793.097711929998</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18606,7 +18222,7 @@
         <v>5879.276711929998</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18705,7 +18321,7 @@
         <v>5296.034711929998</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18738,7 +18354,7 @@
         <v>5193.998711929998</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18903,7 +18519,7 @@
         <v>5090.008860479998</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18936,7 +18552,7 @@
         <v>4912.972059249998</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18969,7 +18585,7 @@
         <v>4680.612759249998</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19002,7 +18618,7 @@
         <v>4448.782359249998</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19035,7 +18651,7 @@
         <v>4618.180759249998</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19068,7 +18684,7 @@
         <v>4509.977559249998</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19101,7 +18717,7 @@
         <v>5049.057701969999</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19134,7 +18750,7 @@
         <v>4996.560101969999</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19167,7 +18783,7 @@
         <v>5332.429307129999</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19200,7 +18816,7 @@
         <v>5200.038112289999</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19233,7 +18849,7 @@
         <v>5200.038112289999</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19266,7 +18882,7 @@
         <v>4992.460912289999</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19299,7 +18915,7 @@
         <v>4992.460912289999</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19332,7 +18948,7 @@
         <v>4794.708604969999</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19365,7 +18981,7 @@
         <v>4666.082204969999</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19398,7 +19014,7 @@
         <v>4549.727304969999</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19431,7 +19047,7 @@
         <v>4481.775804969999</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19464,7 +19080,7 @@
         <v>4209.537404969999</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19530,7 +19146,7 @@
         <v>3614.194504969999</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19596,7 +19212,7 @@
         <v>3453.958661109999</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19794,7 +19410,7 @@
         <v>4144.64186027</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19827,7 +19443,7 @@
         <v>4055.755960269999</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19860,7 +19476,7 @@
         <v>4042.614060269999</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19893,7 +19509,7 @@
         <v>3889.071560269999</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19926,7 +19542,7 @@
         <v>3775.364260269999</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19959,7 +19575,7 @@
         <v>3431.237460269999</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19992,7 +19608,7 @@
         <v>3707.748760269999</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20025,7 +19641,7 @@
         <v>3378.72906027</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20058,7 +19674,7 @@
         <v>3200.015782859999</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20091,7 +19707,7 @@
         <v>2679.068982859999</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20124,7 +19740,7 @@
         <v>2615.879982859999</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20157,7 +19773,7 @@
         <v>2828.525582859999</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20190,7 +19806,7 @@
         <v>2762.12888286</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -34809,7 +34425,7 @@
         <v>2108.916890529997</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34842,7 +34458,7 @@
         <v>2128.864890529997</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34875,7 +34491,7 @@
         <v>1993.954190529997</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -42641,6 +42257,6 @@
       <c r="M1225" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest BSV.xlsx
+++ b/BackTest/2020-01-12 BackTest BSV.xlsx
@@ -3190,3159 +3190,2789 @@
         <v>-3606.47597394</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>167400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>167800</v>
+      </c>
+      <c r="C86" t="n">
+        <v>167800</v>
+      </c>
+      <c r="D86" t="n">
+        <v>167800</v>
+      </c>
+      <c r="E86" t="n">
+        <v>167800</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-3606.47597394</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>167700</v>
+      </c>
+      <c r="C87" t="n">
+        <v>167800</v>
+      </c>
+      <c r="D87" t="n">
+        <v>167800</v>
+      </c>
+      <c r="E87" t="n">
+        <v>167500</v>
+      </c>
+      <c r="F87" t="n">
+        <v>30.0096</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-3606.47597394</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>167500</v>
+      </c>
+      <c r="C88" t="n">
+        <v>167300</v>
+      </c>
+      <c r="D88" t="n">
+        <v>167500</v>
+      </c>
+      <c r="E88" t="n">
+        <v>167300</v>
+      </c>
+      <c r="F88" t="n">
+        <v>17.3737</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-3623.84967394</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>167300</v>
+      </c>
+      <c r="C89" t="n">
+        <v>167200</v>
+      </c>
+      <c r="D89" t="n">
+        <v>167300</v>
+      </c>
+      <c r="E89" t="n">
+        <v>167200</v>
+      </c>
+      <c r="F89" t="n">
+        <v>14.8758</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-3638.72547394</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>167000</v>
+      </c>
+      <c r="C90" t="n">
+        <v>167100</v>
+      </c>
+      <c r="D90" t="n">
+        <v>167100</v>
+      </c>
+      <c r="E90" t="n">
+        <v>166900</v>
+      </c>
+      <c r="F90" t="n">
+        <v>157.8044</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-3796.52987394</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>167100</v>
+      </c>
+      <c r="C91" t="n">
+        <v>167100</v>
+      </c>
+      <c r="D91" t="n">
+        <v>167100</v>
+      </c>
+      <c r="E91" t="n">
+        <v>167100</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4.8131</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-3796.52987394</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>167200</v>
+      </c>
+      <c r="C92" t="n">
+        <v>167800</v>
+      </c>
+      <c r="D92" t="n">
+        <v>167800</v>
+      </c>
+      <c r="E92" t="n">
+        <v>167200</v>
+      </c>
+      <c r="F92" t="n">
+        <v>19.9962</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-3776.53367394</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>167900</v>
+      </c>
+      <c r="C93" t="n">
+        <v>168400</v>
+      </c>
+      <c r="D93" t="n">
+        <v>169600</v>
+      </c>
+      <c r="E93" t="n">
+        <v>167900</v>
+      </c>
+      <c r="F93" t="n">
+        <v>314.18926548</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-3462.34440846</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>168800</v>
+      </c>
+      <c r="C94" t="n">
+        <v>169900</v>
+      </c>
+      <c r="D94" t="n">
+        <v>169900</v>
+      </c>
+      <c r="E94" t="n">
+        <v>168800</v>
+      </c>
+      <c r="F94" t="n">
+        <v>66.01709911</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-3396.32730935</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>169700</v>
+      </c>
+      <c r="C95" t="n">
+        <v>169200</v>
+      </c>
+      <c r="D95" t="n">
+        <v>170100</v>
+      </c>
+      <c r="E95" t="n">
+        <v>169200</v>
+      </c>
+      <c r="F95" t="n">
+        <v>322.83732932</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-3719.16463867</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>170000</v>
+      </c>
+      <c r="C96" t="n">
+        <v>169900</v>
+      </c>
+      <c r="D96" t="n">
+        <v>170000</v>
+      </c>
+      <c r="E96" t="n">
+        <v>169600</v>
+      </c>
+      <c r="F96" t="n">
+        <v>8.28871764</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-3710.87592103</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>170000</v>
+      </c>
+      <c r="C97" t="n">
+        <v>170000</v>
+      </c>
+      <c r="D97" t="n">
+        <v>170000</v>
+      </c>
+      <c r="E97" t="n">
+        <v>169000</v>
+      </c>
+      <c r="F97" t="n">
+        <v>214.9729</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-3495.90302103</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>169800</v>
+      </c>
+      <c r="C98" t="n">
+        <v>169800</v>
+      </c>
+      <c r="D98" t="n">
+        <v>169800</v>
+      </c>
+      <c r="E98" t="n">
+        <v>169800</v>
+      </c>
+      <c r="F98" t="n">
+        <v>8.952299999999999</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-3504.85532103</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>169500</v>
+      </c>
+      <c r="C99" t="n">
+        <v>169500</v>
+      </c>
+      <c r="D99" t="n">
+        <v>169500</v>
+      </c>
+      <c r="E99" t="n">
+        <v>169500</v>
+      </c>
+      <c r="F99" t="n">
+        <v>33.1771</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-3538.03242103</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>169400</v>
+      </c>
+      <c r="C100" t="n">
+        <v>168700</v>
+      </c>
+      <c r="D100" t="n">
+        <v>169400</v>
+      </c>
+      <c r="E100" t="n">
+        <v>168700</v>
+      </c>
+      <c r="F100" t="n">
+        <v>128.0821</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-3666.11452103</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>168500</v>
+      </c>
+      <c r="C101" t="n">
+        <v>168700</v>
+      </c>
+      <c r="D101" t="n">
+        <v>169000</v>
+      </c>
+      <c r="E101" t="n">
+        <v>168000</v>
+      </c>
+      <c r="F101" t="n">
+        <v>207.7131</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-3666.11452103</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>168400</v>
+      </c>
+      <c r="C102" t="n">
+        <v>169000</v>
+      </c>
+      <c r="D102" t="n">
+        <v>169000</v>
+      </c>
+      <c r="E102" t="n">
+        <v>167600</v>
+      </c>
+      <c r="F102" t="n">
+        <v>486.9412</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-3179.17332103</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>168600</v>
+      </c>
+      <c r="C103" t="n">
+        <v>168600</v>
+      </c>
+      <c r="D103" t="n">
+        <v>169000</v>
+      </c>
+      <c r="E103" t="n">
+        <v>167900</v>
+      </c>
+      <c r="F103" t="n">
+        <v>44.07258734</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-3223.24590837</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>168400</v>
+      </c>
+      <c r="C104" t="n">
+        <v>169200</v>
+      </c>
+      <c r="D104" t="n">
+        <v>169200</v>
+      </c>
+      <c r="E104" t="n">
+        <v>167900</v>
+      </c>
+      <c r="F104" t="n">
+        <v>71.8712</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-3151.37470837</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>169000</v>
+      </c>
+      <c r="C105" t="n">
+        <v>168100</v>
+      </c>
+      <c r="D105" t="n">
+        <v>169000</v>
+      </c>
+      <c r="E105" t="n">
+        <v>167800</v>
+      </c>
+      <c r="F105" t="n">
+        <v>165.5768</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-3316.95150837</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>168500</v>
+      </c>
+      <c r="C106" t="n">
+        <v>168900</v>
+      </c>
+      <c r="D106" t="n">
+        <v>168900</v>
+      </c>
+      <c r="E106" t="n">
+        <v>168300</v>
+      </c>
+      <c r="F106" t="n">
+        <v>6.8619</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-3310.08960837</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>168400</v>
+      </c>
+      <c r="C107" t="n">
+        <v>168700</v>
+      </c>
+      <c r="D107" t="n">
+        <v>168700</v>
+      </c>
+      <c r="E107" t="n">
+        <v>168100</v>
+      </c>
+      <c r="F107" t="n">
+        <v>42.5734</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-3352.66300837</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>168400</v>
+      </c>
+      <c r="C108" t="n">
+        <v>168400</v>
+      </c>
+      <c r="D108" t="n">
+        <v>168400</v>
+      </c>
+      <c r="E108" t="n">
+        <v>168400</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-3352.67200837</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>168600</v>
+      </c>
+      <c r="C109" t="n">
+        <v>169000</v>
+      </c>
+      <c r="D109" t="n">
+        <v>169000</v>
+      </c>
+      <c r="E109" t="n">
+        <v>168600</v>
+      </c>
+      <c r="F109" t="n">
+        <v>43.7981</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-3308.87390837</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>168700</v>
+      </c>
+      <c r="C110" t="n">
+        <v>168600</v>
+      </c>
+      <c r="D110" t="n">
+        <v>168700</v>
+      </c>
+      <c r="E110" t="n">
+        <v>168600</v>
+      </c>
+      <c r="F110" t="n">
+        <v>71.3232</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-3380.19710837</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>168600</v>
+      </c>
+      <c r="C111" t="n">
+        <v>168900</v>
+      </c>
+      <c r="D111" t="n">
+        <v>169100</v>
+      </c>
+      <c r="E111" t="n">
+        <v>168600</v>
+      </c>
+      <c r="F111" t="n">
+        <v>129.627</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-3250.57010837</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>168700</v>
+      </c>
+      <c r="C112" t="n">
+        <v>168300</v>
+      </c>
+      <c r="D112" t="n">
+        <v>168700</v>
+      </c>
+      <c r="E112" t="n">
+        <v>168300</v>
+      </c>
+      <c r="F112" t="n">
+        <v>64.7526</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-3315.32270837</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>168900</v>
+      </c>
+      <c r="C113" t="n">
+        <v>168700</v>
+      </c>
+      <c r="D113" t="n">
+        <v>168900</v>
+      </c>
+      <c r="E113" t="n">
+        <v>168500</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.6673</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-3313.65540837</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>168700</v>
+      </c>
+      <c r="C114" t="n">
+        <v>168900</v>
+      </c>
+      <c r="D114" t="n">
+        <v>169000</v>
+      </c>
+      <c r="E114" t="n">
+        <v>168700</v>
+      </c>
+      <c r="F114" t="n">
+        <v>65.3643</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-3248.29110837</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>168900</v>
+      </c>
+      <c r="C115" t="n">
+        <v>169100</v>
+      </c>
+      <c r="D115" t="n">
+        <v>169100</v>
+      </c>
+      <c r="E115" t="n">
+        <v>168900</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.00959189</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-3246.281516479999</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>169200</v>
+      </c>
+      <c r="C116" t="n">
+        <v>169600</v>
+      </c>
+      <c r="D116" t="n">
+        <v>169600</v>
+      </c>
+      <c r="E116" t="n">
+        <v>169000</v>
+      </c>
+      <c r="F116" t="n">
+        <v>21.976</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-3224.305516479999</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>169900</v>
+      </c>
+      <c r="C117" t="n">
+        <v>169600</v>
+      </c>
+      <c r="D117" t="n">
+        <v>170100</v>
+      </c>
+      <c r="E117" t="n">
+        <v>169600</v>
+      </c>
+      <c r="F117" t="n">
+        <v>108.79439815</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-3224.305516479999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>169700</v>
+      </c>
+      <c r="C118" t="n">
+        <v>169700</v>
+      </c>
+      <c r="D118" t="n">
+        <v>169700</v>
+      </c>
+      <c r="E118" t="n">
+        <v>169700</v>
+      </c>
+      <c r="F118" t="n">
+        <v>17.8359</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-3206.469616479999</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>170000</v>
+      </c>
+      <c r="C119" t="n">
+        <v>170000</v>
+      </c>
+      <c r="D119" t="n">
+        <v>170000</v>
+      </c>
+      <c r="E119" t="n">
+        <v>170000</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.8366</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-3204.633016479999</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>170000</v>
+      </c>
+      <c r="C120" t="n">
+        <v>170500</v>
+      </c>
+      <c r="D120" t="n">
+        <v>170500</v>
+      </c>
+      <c r="E120" t="n">
+        <v>170000</v>
+      </c>
+      <c r="F120" t="n">
+        <v>93.74491114</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-3110.888105339999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>171000</v>
+      </c>
+      <c r="C121" t="n">
+        <v>171800</v>
+      </c>
+      <c r="D121" t="n">
+        <v>172300</v>
+      </c>
+      <c r="E121" t="n">
+        <v>171000</v>
+      </c>
+      <c r="F121" t="n">
+        <v>149.84084968</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2961.047255659999</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>171300</v>
+      </c>
+      <c r="C122" t="n">
+        <v>171500</v>
+      </c>
+      <c r="D122" t="n">
+        <v>171500</v>
+      </c>
+      <c r="E122" t="n">
+        <v>171300</v>
+      </c>
+      <c r="F122" t="n">
+        <v>25.0538</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2986.101055659999</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>171400</v>
+      </c>
+      <c r="C123" t="n">
+        <v>172000</v>
+      </c>
+      <c r="D123" t="n">
+        <v>173100</v>
+      </c>
+      <c r="E123" t="n">
+        <v>171400</v>
+      </c>
+      <c r="F123" t="n">
+        <v>124.2156</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-2861.885455659999</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>171400</v>
+      </c>
+      <c r="C124" t="n">
+        <v>171300</v>
+      </c>
+      <c r="D124" t="n">
+        <v>172200</v>
+      </c>
+      <c r="E124" t="n">
+        <v>170700</v>
+      </c>
+      <c r="F124" t="n">
+        <v>125.729</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2987.614455659999</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>171300</v>
+      </c>
+      <c r="C125" t="n">
+        <v>171100</v>
+      </c>
+      <c r="D125" t="n">
+        <v>171300</v>
+      </c>
+      <c r="E125" t="n">
+        <v>170900</v>
+      </c>
+      <c r="F125" t="n">
+        <v>70.7603</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-3058.374755659999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>171200</v>
+      </c>
+      <c r="C126" t="n">
+        <v>171300</v>
+      </c>
+      <c r="D126" t="n">
+        <v>171300</v>
+      </c>
+      <c r="E126" t="n">
+        <v>171000</v>
+      </c>
+      <c r="F126" t="n">
+        <v>37.1533</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-3021.221455659999</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>171200</v>
+      </c>
+      <c r="C127" t="n">
+        <v>171700</v>
+      </c>
+      <c r="D127" t="n">
+        <v>171700</v>
+      </c>
+      <c r="E127" t="n">
+        <v>171200</v>
+      </c>
+      <c r="F127" t="n">
+        <v>81.40595806</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-2939.815497599999</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>171400</v>
+      </c>
+      <c r="C128" t="n">
+        <v>170700</v>
+      </c>
+      <c r="D128" t="n">
+        <v>172100</v>
+      </c>
+      <c r="E128" t="n">
+        <v>170100</v>
+      </c>
+      <c r="F128" t="n">
+        <v>188.9593</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-3128.774797599999</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>171600</v>
+      </c>
+      <c r="C129" t="n">
+        <v>170700</v>
+      </c>
+      <c r="D129" t="n">
+        <v>171600</v>
+      </c>
+      <c r="E129" t="n">
+        <v>170700</v>
+      </c>
+      <c r="F129" t="n">
+        <v>52.6738</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-3128.774797599999</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>170700</v>
+      </c>
+      <c r="C130" t="n">
+        <v>170700</v>
+      </c>
+      <c r="D130" t="n">
+        <v>170700</v>
+      </c>
+      <c r="E130" t="n">
+        <v>170700</v>
+      </c>
+      <c r="F130" t="n">
+        <v>9.6852</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-3128.774797599999</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>170700</v>
+      </c>
+      <c r="C131" t="n">
+        <v>170600</v>
+      </c>
+      <c r="D131" t="n">
+        <v>170700</v>
+      </c>
+      <c r="E131" t="n">
+        <v>170600</v>
+      </c>
+      <c r="F131" t="n">
+        <v>19.0451</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-3147.819897599999</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>170600</v>
+      </c>
+      <c r="C132" t="n">
+        <v>170200</v>
+      </c>
+      <c r="D132" t="n">
+        <v>170600</v>
+      </c>
+      <c r="E132" t="n">
+        <v>170200</v>
+      </c>
+      <c r="F132" t="n">
+        <v>47.6418</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-3195.461697599999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>170300</v>
+      </c>
+      <c r="C133" t="n">
+        <v>170300</v>
+      </c>
+      <c r="D133" t="n">
+        <v>170300</v>
+      </c>
+      <c r="E133" t="n">
+        <v>170300</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3.2515</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-3192.210197599999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>170000</v>
+      </c>
+      <c r="C134" t="n">
+        <v>170700</v>
+      </c>
+      <c r="D134" t="n">
+        <v>170700</v>
+      </c>
+      <c r="E134" t="n">
+        <v>170000</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2.0167</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-3190.193497599999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>170700</v>
+      </c>
+      <c r="C135" t="n">
+        <v>170700</v>
+      </c>
+      <c r="D135" t="n">
+        <v>170700</v>
+      </c>
+      <c r="E135" t="n">
+        <v>170700</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3.4992</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-3190.193497599999</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>171100</v>
+      </c>
+      <c r="C136" t="n">
+        <v>170600</v>
+      </c>
+      <c r="D136" t="n">
+        <v>171100</v>
+      </c>
+      <c r="E136" t="n">
+        <v>170600</v>
+      </c>
+      <c r="F136" t="n">
+        <v>7.15953968</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-3197.353037279999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>170800</v>
+      </c>
+      <c r="C137" t="n">
+        <v>170800</v>
+      </c>
+      <c r="D137" t="n">
+        <v>170800</v>
+      </c>
+      <c r="E137" t="n">
+        <v>170800</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3.6787</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-3193.674337279999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>171000</v>
+      </c>
+      <c r="C138" t="n">
+        <v>171200</v>
+      </c>
+      <c r="D138" t="n">
+        <v>171200</v>
+      </c>
+      <c r="E138" t="n">
+        <v>171000</v>
+      </c>
+      <c r="F138" t="n">
+        <v>133.17676448</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-3060.497572799999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>171700</v>
+      </c>
+      <c r="C139" t="n">
+        <v>172600</v>
+      </c>
+      <c r="D139" t="n">
+        <v>172600</v>
+      </c>
+      <c r="E139" t="n">
+        <v>171700</v>
+      </c>
+      <c r="F139" t="n">
+        <v>101.67095347</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-2958.826619329999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>171600</v>
+      </c>
+      <c r="C140" t="n">
+        <v>171100</v>
+      </c>
+      <c r="D140" t="n">
+        <v>171600</v>
+      </c>
+      <c r="E140" t="n">
+        <v>171000</v>
+      </c>
+      <c r="F140" t="n">
+        <v>106.3031</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-3065.129719329999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>171000</v>
+      </c>
+      <c r="C141" t="n">
+        <v>171400</v>
+      </c>
+      <c r="D141" t="n">
+        <v>171400</v>
+      </c>
+      <c r="E141" t="n">
+        <v>171000</v>
+      </c>
+      <c r="F141" t="n">
+        <v>77.83617911</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-2987.293540219999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>171100</v>
+      </c>
+      <c r="C142" t="n">
+        <v>171200</v>
+      </c>
+      <c r="D142" t="n">
+        <v>171500</v>
+      </c>
+      <c r="E142" t="n">
+        <v>171100</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15.4348</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-3002.728340219999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>171200</v>
+      </c>
+      <c r="C143" t="n">
+        <v>171200</v>
+      </c>
+      <c r="D143" t="n">
+        <v>171200</v>
+      </c>
+      <c r="E143" t="n">
+        <v>171200</v>
+      </c>
+      <c r="F143" t="n">
+        <v>9.2561</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-3002.728340219999</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>171200</v>
+      </c>
+      <c r="C144" t="n">
+        <v>171200</v>
+      </c>
+      <c r="D144" t="n">
+        <v>171300</v>
+      </c>
+      <c r="E144" t="n">
+        <v>171000</v>
+      </c>
+      <c r="F144" t="n">
+        <v>61.3611</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-3002.728340219999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>171200</v>
+      </c>
+      <c r="C145" t="n">
+        <v>171200</v>
+      </c>
+      <c r="D145" t="n">
+        <v>171200</v>
+      </c>
+      <c r="E145" t="n">
+        <v>171200</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-3002.728340219999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>171000</v>
+      </c>
+      <c r="C146" t="n">
+        <v>171000</v>
+      </c>
+      <c r="D146" t="n">
+        <v>171000</v>
+      </c>
+      <c r="E146" t="n">
+        <v>171000</v>
+      </c>
+      <c r="F146" t="n">
+        <v>20</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-3022.728340219999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>171000</v>
+      </c>
+      <c r="C147" t="n">
+        <v>171000</v>
+      </c>
+      <c r="D147" t="n">
+        <v>171000</v>
+      </c>
+      <c r="E147" t="n">
+        <v>169600</v>
+      </c>
+      <c r="F147" t="n">
+        <v>313.3256</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-3022.728340219999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>169900</v>
+      </c>
+      <c r="C148" t="n">
+        <v>169600</v>
+      </c>
+      <c r="D148" t="n">
+        <v>170200</v>
+      </c>
+      <c r="E148" t="n">
+        <v>169600</v>
+      </c>
+      <c r="F148" t="n">
+        <v>60.3851</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-3083.113440219999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>170100</v>
+      </c>
+      <c r="C149" t="n">
+        <v>168400</v>
+      </c>
+      <c r="D149" t="n">
+        <v>170100</v>
+      </c>
+      <c r="E149" t="n">
+        <v>168400</v>
+      </c>
+      <c r="F149" t="n">
+        <v>68.0223</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-3151.135740219999</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>169200</v>
+      </c>
+      <c r="C150" t="n">
+        <v>168100</v>
+      </c>
+      <c r="D150" t="n">
+        <v>169200</v>
+      </c>
+      <c r="E150" t="n">
+        <v>168100</v>
+      </c>
+      <c r="F150" t="n">
+        <v>11.9061</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-3163.041840219999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>169000</v>
+      </c>
+      <c r="C151" t="n">
+        <v>169100</v>
+      </c>
+      <c r="D151" t="n">
+        <v>169100</v>
+      </c>
+      <c r="E151" t="n">
+        <v>169000</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.0786</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-3162.963240219999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>169000</v>
+      </c>
+      <c r="C152" t="n">
+        <v>169000</v>
+      </c>
+      <c r="D152" t="n">
+        <v>169000</v>
+      </c>
+      <c r="E152" t="n">
+        <v>169000</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-3163.043240219999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>169200</v>
+      </c>
+      <c r="C153" t="n">
+        <v>169200</v>
+      </c>
+      <c r="D153" t="n">
+        <v>169400</v>
+      </c>
+      <c r="E153" t="n">
+        <v>169200</v>
+      </c>
+      <c r="F153" t="n">
+        <v>7.6682</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-3155.375040219999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>169200</v>
+      </c>
+      <c r="C154" t="n">
+        <v>169200</v>
+      </c>
+      <c r="D154" t="n">
+        <v>169200</v>
+      </c>
+      <c r="E154" t="n">
+        <v>169200</v>
+      </c>
+      <c r="F154" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-3155.375040219999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>169200</v>
+      </c>
+      <c r="C155" t="n">
+        <v>169000</v>
+      </c>
+      <c r="D155" t="n">
+        <v>169200</v>
+      </c>
+      <c r="E155" t="n">
+        <v>169000</v>
+      </c>
+      <c r="F155" t="n">
+        <v>95.8409</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-3251.215940219999</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>169500</v>
+      </c>
+      <c r="C156" t="n">
+        <v>169100</v>
+      </c>
+      <c r="D156" t="n">
+        <v>169500</v>
+      </c>
+      <c r="E156" t="n">
+        <v>169100</v>
+      </c>
+      <c r="F156" t="n">
+        <v>8.0228</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-3243.193140219999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>169100</v>
+      </c>
+      <c r="C157" t="n">
+        <v>169000</v>
+      </c>
+      <c r="D157" t="n">
+        <v>169400</v>
+      </c>
+      <c r="E157" t="n">
+        <v>169000</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2.8492</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-3246.042340219999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>169000</v>
+      </c>
+      <c r="C158" t="n">
+        <v>169100</v>
+      </c>
+      <c r="D158" t="n">
+        <v>169100</v>
+      </c>
+      <c r="E158" t="n">
+        <v>169000</v>
+      </c>
+      <c r="F158" t="n">
+        <v>14.7423</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-3231.300040219999</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>169100</v>
+      </c>
+      <c r="C159" t="n">
+        <v>169000</v>
+      </c>
+      <c r="D159" t="n">
+        <v>169100</v>
+      </c>
+      <c r="E159" t="n">
+        <v>169000</v>
+      </c>
+      <c r="F159" t="n">
+        <v>19.404</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-3250.704040219999</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>168700</v>
+      </c>
+      <c r="C160" t="n">
+        <v>168700</v>
+      </c>
+      <c r="D160" t="n">
+        <v>168700</v>
+      </c>
+      <c r="E160" t="n">
+        <v>168700</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3.1694</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-3253.873440219999</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>169000</v>
+      </c>
+      <c r="C161" t="n">
+        <v>168600</v>
+      </c>
+      <c r="D161" t="n">
+        <v>169000</v>
+      </c>
+      <c r="E161" t="n">
+        <v>168600</v>
+      </c>
+      <c r="F161" t="n">
+        <v>7.1545</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-3261.027940219999</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>168600</v>
+      </c>
+      <c r="C162" t="n">
+        <v>168600</v>
+      </c>
+      <c r="D162" t="n">
+        <v>168600</v>
+      </c>
+      <c r="E162" t="n">
+        <v>168600</v>
+      </c>
+      <c r="F162" t="n">
+        <v>20</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-3261.027940219999</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>168600</v>
+      </c>
+      <c r="C163" t="n">
+        <v>168800</v>
+      </c>
+      <c r="D163" t="n">
+        <v>169000</v>
+      </c>
+      <c r="E163" t="n">
+        <v>168500</v>
+      </c>
+      <c r="F163" t="n">
+        <v>63.5195</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-3197.50844022</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>168500</v>
+      </c>
+      <c r="C164" t="n">
+        <v>168500</v>
+      </c>
+      <c r="D164" t="n">
+        <v>168500</v>
+      </c>
+      <c r="E164" t="n">
+        <v>168500</v>
+      </c>
+      <c r="F164" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-3209.40844022</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>168300</v>
+      </c>
+      <c r="C165" t="n">
+        <v>168600</v>
+      </c>
+      <c r="D165" t="n">
+        <v>168700</v>
+      </c>
+      <c r="E165" t="n">
+        <v>168300</v>
+      </c>
+      <c r="F165" t="n">
+        <v>37.3525</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-3172.05594022</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>168300</v>
+      </c>
+      <c r="C166" t="n">
+        <v>168300</v>
+      </c>
+      <c r="D166" t="n">
+        <v>168300</v>
+      </c>
+      <c r="E166" t="n">
+        <v>168300</v>
+      </c>
+      <c r="F166" t="n">
+        <v>72.93770000000001</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-3244.99364022</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>168300</v>
+      </c>
+      <c r="C167" t="n">
+        <v>167900</v>
+      </c>
+      <c r="D167" t="n">
+        <v>168300</v>
+      </c>
+      <c r="E167" t="n">
+        <v>167900</v>
+      </c>
+      <c r="F167" t="n">
+        <v>70.91240000000001</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-3315.90604022</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>167600</v>
+      </c>
+      <c r="C168" t="n">
+        <v>168000</v>
+      </c>
+      <c r="D168" t="n">
+        <v>168000</v>
+      </c>
+      <c r="E168" t="n">
+        <v>167500</v>
+      </c>
+      <c r="F168" t="n">
+        <v>82.1002</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-3233.80584022</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>168000</v>
+      </c>
+      <c r="C169" t="n">
+        <v>168000</v>
+      </c>
+      <c r="D169" t="n">
+        <v>168100</v>
+      </c>
+      <c r="E169" t="n">
+        <v>168000</v>
+      </c>
+      <c r="F169" t="n">
+        <v>114.7098</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-3233.80584022</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>168000</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>167800</v>
-      </c>
-      <c r="C86" t="n">
-        <v>167800</v>
-      </c>
-      <c r="D86" t="n">
-        <v>167800</v>
-      </c>
-      <c r="E86" t="n">
-        <v>167800</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-3606.47597394</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>167800</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>167700</v>
-      </c>
-      <c r="C87" t="n">
-        <v>167800</v>
-      </c>
-      <c r="D87" t="n">
-        <v>167800</v>
-      </c>
-      <c r="E87" t="n">
-        <v>167500</v>
-      </c>
-      <c r="F87" t="n">
-        <v>30.0096</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-3606.47597394</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>167800</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>167500</v>
-      </c>
-      <c r="C88" t="n">
-        <v>167300</v>
-      </c>
-      <c r="D88" t="n">
-        <v>167500</v>
-      </c>
-      <c r="E88" t="n">
-        <v>167300</v>
-      </c>
-      <c r="F88" t="n">
-        <v>17.3737</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-3623.84967394</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>167800</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>167300</v>
-      </c>
-      <c r="C89" t="n">
-        <v>167200</v>
-      </c>
-      <c r="D89" t="n">
-        <v>167300</v>
-      </c>
-      <c r="E89" t="n">
-        <v>167200</v>
-      </c>
-      <c r="F89" t="n">
-        <v>14.8758</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-3638.72547394</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>167300</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>167000</v>
-      </c>
-      <c r="C90" t="n">
-        <v>167100</v>
-      </c>
-      <c r="D90" t="n">
-        <v>167100</v>
-      </c>
-      <c r="E90" t="n">
-        <v>166900</v>
-      </c>
-      <c r="F90" t="n">
-        <v>157.8044</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-3796.52987394</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>167200</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>167100</v>
-      </c>
-      <c r="C91" t="n">
-        <v>167100</v>
-      </c>
-      <c r="D91" t="n">
-        <v>167100</v>
-      </c>
-      <c r="E91" t="n">
-        <v>167100</v>
-      </c>
-      <c r="F91" t="n">
-        <v>4.8131</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-3796.52987394</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>167100</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>167200</v>
-      </c>
-      <c r="C92" t="n">
-        <v>167800</v>
-      </c>
-      <c r="D92" t="n">
-        <v>167800</v>
-      </c>
-      <c r="E92" t="n">
-        <v>167200</v>
-      </c>
-      <c r="F92" t="n">
-        <v>19.9962</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-3776.53367394</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>167100</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>167900</v>
-      </c>
-      <c r="C93" t="n">
-        <v>168400</v>
-      </c>
-      <c r="D93" t="n">
-        <v>169600</v>
-      </c>
-      <c r="E93" t="n">
-        <v>167900</v>
-      </c>
-      <c r="F93" t="n">
-        <v>314.18926548</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-3462.34440846</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>167800</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>168800</v>
-      </c>
-      <c r="C94" t="n">
-        <v>169900</v>
-      </c>
-      <c r="D94" t="n">
-        <v>169900</v>
-      </c>
-      <c r="E94" t="n">
-        <v>168800</v>
-      </c>
-      <c r="F94" t="n">
-        <v>66.01709911</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-3396.32730935</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>168400</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>169700</v>
-      </c>
-      <c r="C95" t="n">
-        <v>169200</v>
-      </c>
-      <c r="D95" t="n">
-        <v>170100</v>
-      </c>
-      <c r="E95" t="n">
-        <v>169200</v>
-      </c>
-      <c r="F95" t="n">
-        <v>322.83732932</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-3719.16463867</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>169900</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>170000</v>
-      </c>
-      <c r="C96" t="n">
-        <v>169900</v>
-      </c>
-      <c r="D96" t="n">
-        <v>170000</v>
-      </c>
-      <c r="E96" t="n">
-        <v>169600</v>
-      </c>
-      <c r="F96" t="n">
-        <v>8.28871764</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-3710.87592103</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>170000</v>
-      </c>
-      <c r="C97" t="n">
-        <v>170000</v>
-      </c>
-      <c r="D97" t="n">
-        <v>170000</v>
-      </c>
-      <c r="E97" t="n">
-        <v>169000</v>
-      </c>
-      <c r="F97" t="n">
-        <v>214.9729</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-3495.90302103</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>169900</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>169800</v>
-      </c>
-      <c r="C98" t="n">
-        <v>169800</v>
-      </c>
-      <c r="D98" t="n">
-        <v>169800</v>
-      </c>
-      <c r="E98" t="n">
-        <v>169800</v>
-      </c>
-      <c r="F98" t="n">
-        <v>8.952299999999999</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-3504.85532103</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>169500</v>
-      </c>
-      <c r="C99" t="n">
-        <v>169500</v>
-      </c>
-      <c r="D99" t="n">
-        <v>169500</v>
-      </c>
-      <c r="E99" t="n">
-        <v>169500</v>
-      </c>
-      <c r="F99" t="n">
-        <v>33.1771</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-3538.03242103</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>169400</v>
-      </c>
-      <c r="C100" t="n">
-        <v>168700</v>
-      </c>
-      <c r="D100" t="n">
-        <v>169400</v>
-      </c>
-      <c r="E100" t="n">
-        <v>168700</v>
-      </c>
-      <c r="F100" t="n">
-        <v>128.0821</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-3666.11452103</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>168500</v>
-      </c>
-      <c r="C101" t="n">
-        <v>168700</v>
-      </c>
-      <c r="D101" t="n">
-        <v>169000</v>
-      </c>
-      <c r="E101" t="n">
-        <v>168000</v>
-      </c>
-      <c r="F101" t="n">
-        <v>207.7131</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-3666.11452103</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>168400</v>
-      </c>
-      <c r="C102" t="n">
-        <v>169000</v>
-      </c>
-      <c r="D102" t="n">
-        <v>169000</v>
-      </c>
-      <c r="E102" t="n">
-        <v>167600</v>
-      </c>
-      <c r="F102" t="n">
-        <v>486.9412</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-3179.17332103</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>168600</v>
-      </c>
-      <c r="C103" t="n">
-        <v>168600</v>
-      </c>
-      <c r="D103" t="n">
-        <v>169000</v>
-      </c>
-      <c r="E103" t="n">
-        <v>167900</v>
-      </c>
-      <c r="F103" t="n">
-        <v>44.07258734</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-3223.24590837</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>168400</v>
-      </c>
-      <c r="C104" t="n">
-        <v>169200</v>
-      </c>
-      <c r="D104" t="n">
-        <v>169200</v>
-      </c>
-      <c r="E104" t="n">
-        <v>167900</v>
-      </c>
-      <c r="F104" t="n">
-        <v>71.8712</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-3151.37470837</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>169000</v>
-      </c>
-      <c r="C105" t="n">
-        <v>168100</v>
-      </c>
-      <c r="D105" t="n">
-        <v>169000</v>
-      </c>
-      <c r="E105" t="n">
-        <v>167800</v>
-      </c>
-      <c r="F105" t="n">
-        <v>165.5768</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-3316.95150837</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>168500</v>
-      </c>
-      <c r="C106" t="n">
-        <v>168900</v>
-      </c>
-      <c r="D106" t="n">
-        <v>168900</v>
-      </c>
-      <c r="E106" t="n">
-        <v>168300</v>
-      </c>
-      <c r="F106" t="n">
-        <v>6.8619</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-3310.08960837</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>168400</v>
-      </c>
-      <c r="C107" t="n">
-        <v>168700</v>
-      </c>
-      <c r="D107" t="n">
-        <v>168700</v>
-      </c>
-      <c r="E107" t="n">
-        <v>168100</v>
-      </c>
-      <c r="F107" t="n">
-        <v>42.5734</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-3352.66300837</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>168400</v>
-      </c>
-      <c r="C108" t="n">
-        <v>168400</v>
-      </c>
-      <c r="D108" t="n">
-        <v>168400</v>
-      </c>
-      <c r="E108" t="n">
-        <v>168400</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-3352.67200837</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>168600</v>
-      </c>
-      <c r="C109" t="n">
-        <v>169000</v>
-      </c>
-      <c r="D109" t="n">
-        <v>169000</v>
-      </c>
-      <c r="E109" t="n">
-        <v>168600</v>
-      </c>
-      <c r="F109" t="n">
-        <v>43.7981</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-3308.87390837</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>168700</v>
-      </c>
-      <c r="C110" t="n">
-        <v>168600</v>
-      </c>
-      <c r="D110" t="n">
-        <v>168700</v>
-      </c>
-      <c r="E110" t="n">
-        <v>168600</v>
-      </c>
-      <c r="F110" t="n">
-        <v>71.3232</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-3380.19710837</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>168600</v>
-      </c>
-      <c r="C111" t="n">
-        <v>168900</v>
-      </c>
-      <c r="D111" t="n">
-        <v>169100</v>
-      </c>
-      <c r="E111" t="n">
-        <v>168600</v>
-      </c>
-      <c r="F111" t="n">
-        <v>129.627</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-3250.57010837</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>168700</v>
-      </c>
-      <c r="C112" t="n">
-        <v>168300</v>
-      </c>
-      <c r="D112" t="n">
-        <v>168700</v>
-      </c>
-      <c r="E112" t="n">
-        <v>168300</v>
-      </c>
-      <c r="F112" t="n">
-        <v>64.7526</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-3315.32270837</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>168900</v>
-      </c>
-      <c r="C113" t="n">
-        <v>168700</v>
-      </c>
-      <c r="D113" t="n">
-        <v>168900</v>
-      </c>
-      <c r="E113" t="n">
-        <v>168500</v>
-      </c>
-      <c r="F113" t="n">
-        <v>1.6673</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-3313.65540837</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>168700</v>
-      </c>
-      <c r="C114" t="n">
-        <v>168900</v>
-      </c>
-      <c r="D114" t="n">
-        <v>169000</v>
-      </c>
-      <c r="E114" t="n">
-        <v>168700</v>
-      </c>
-      <c r="F114" t="n">
-        <v>65.3643</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-3248.29110837</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>168900</v>
-      </c>
-      <c r="C115" t="n">
-        <v>169100</v>
-      </c>
-      <c r="D115" t="n">
-        <v>169100</v>
-      </c>
-      <c r="E115" t="n">
-        <v>168900</v>
-      </c>
-      <c r="F115" t="n">
-        <v>2.00959189</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-3246.281516479999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>169200</v>
-      </c>
-      <c r="C116" t="n">
-        <v>169600</v>
-      </c>
-      <c r="D116" t="n">
-        <v>169600</v>
-      </c>
-      <c r="E116" t="n">
-        <v>169000</v>
-      </c>
-      <c r="F116" t="n">
-        <v>21.976</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-3224.305516479999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>169900</v>
-      </c>
-      <c r="C117" t="n">
-        <v>169600</v>
-      </c>
-      <c r="D117" t="n">
-        <v>170100</v>
-      </c>
-      <c r="E117" t="n">
-        <v>169600</v>
-      </c>
-      <c r="F117" t="n">
-        <v>108.79439815</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-3224.305516479999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>169700</v>
-      </c>
-      <c r="C118" t="n">
-        <v>169700</v>
-      </c>
-      <c r="D118" t="n">
-        <v>169700</v>
-      </c>
-      <c r="E118" t="n">
-        <v>169700</v>
-      </c>
-      <c r="F118" t="n">
-        <v>17.8359</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-3206.469616479999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>170000</v>
-      </c>
-      <c r="C119" t="n">
-        <v>170000</v>
-      </c>
-      <c r="D119" t="n">
-        <v>170000</v>
-      </c>
-      <c r="E119" t="n">
-        <v>170000</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1.8366</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-3204.633016479999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>170000</v>
-      </c>
-      <c r="C120" t="n">
-        <v>170500</v>
-      </c>
-      <c r="D120" t="n">
-        <v>170500</v>
-      </c>
-      <c r="E120" t="n">
-        <v>170000</v>
-      </c>
-      <c r="F120" t="n">
-        <v>93.74491114</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-3110.888105339999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>171000</v>
-      </c>
-      <c r="C121" t="n">
-        <v>171800</v>
-      </c>
-      <c r="D121" t="n">
-        <v>172300</v>
-      </c>
-      <c r="E121" t="n">
-        <v>171000</v>
-      </c>
-      <c r="F121" t="n">
-        <v>149.84084968</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-2961.047255659999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>171300</v>
-      </c>
-      <c r="C122" t="n">
-        <v>171500</v>
-      </c>
-      <c r="D122" t="n">
-        <v>171500</v>
-      </c>
-      <c r="E122" t="n">
-        <v>171300</v>
-      </c>
-      <c r="F122" t="n">
-        <v>25.0538</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-2986.101055659999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>171400</v>
-      </c>
-      <c r="C123" t="n">
-        <v>172000</v>
-      </c>
-      <c r="D123" t="n">
-        <v>173100</v>
-      </c>
-      <c r="E123" t="n">
-        <v>171400</v>
-      </c>
-      <c r="F123" t="n">
-        <v>124.2156</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-2861.885455659999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>171400</v>
-      </c>
-      <c r="C124" t="n">
-        <v>171300</v>
-      </c>
-      <c r="D124" t="n">
-        <v>172200</v>
-      </c>
-      <c r="E124" t="n">
-        <v>170700</v>
-      </c>
-      <c r="F124" t="n">
-        <v>125.729</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-2987.614455659999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>171300</v>
-      </c>
-      <c r="C125" t="n">
-        <v>171100</v>
-      </c>
-      <c r="D125" t="n">
-        <v>171300</v>
-      </c>
-      <c r="E125" t="n">
-        <v>170900</v>
-      </c>
-      <c r="F125" t="n">
-        <v>70.7603</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-3058.374755659999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>171200</v>
-      </c>
-      <c r="C126" t="n">
-        <v>171300</v>
-      </c>
-      <c r="D126" t="n">
-        <v>171300</v>
-      </c>
-      <c r="E126" t="n">
-        <v>171000</v>
-      </c>
-      <c r="F126" t="n">
-        <v>37.1533</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-3021.221455659999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>171200</v>
-      </c>
-      <c r="C127" t="n">
-        <v>171700</v>
-      </c>
-      <c r="D127" t="n">
-        <v>171700</v>
-      </c>
-      <c r="E127" t="n">
-        <v>171200</v>
-      </c>
-      <c r="F127" t="n">
-        <v>81.40595806</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-2939.815497599999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>171400</v>
-      </c>
-      <c r="C128" t="n">
-        <v>170700</v>
-      </c>
-      <c r="D128" t="n">
-        <v>172100</v>
-      </c>
-      <c r="E128" t="n">
-        <v>170100</v>
-      </c>
-      <c r="F128" t="n">
-        <v>188.9593</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-3128.774797599999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>171600</v>
-      </c>
-      <c r="C129" t="n">
-        <v>170700</v>
-      </c>
-      <c r="D129" t="n">
-        <v>171600</v>
-      </c>
-      <c r="E129" t="n">
-        <v>170700</v>
-      </c>
-      <c r="F129" t="n">
-        <v>52.6738</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-3128.774797599999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>170700</v>
-      </c>
-      <c r="C130" t="n">
-        <v>170700</v>
-      </c>
-      <c r="D130" t="n">
-        <v>170700</v>
-      </c>
-      <c r="E130" t="n">
-        <v>170700</v>
-      </c>
-      <c r="F130" t="n">
-        <v>9.6852</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-3128.774797599999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>170700</v>
-      </c>
-      <c r="C131" t="n">
-        <v>170600</v>
-      </c>
-      <c r="D131" t="n">
-        <v>170700</v>
-      </c>
-      <c r="E131" t="n">
-        <v>170600</v>
-      </c>
-      <c r="F131" t="n">
-        <v>19.0451</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-3147.819897599999</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>170600</v>
-      </c>
-      <c r="C132" t="n">
-        <v>170200</v>
-      </c>
-      <c r="D132" t="n">
-        <v>170600</v>
-      </c>
-      <c r="E132" t="n">
-        <v>170200</v>
-      </c>
-      <c r="F132" t="n">
-        <v>47.6418</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-3195.461697599999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>170300</v>
-      </c>
-      <c r="C133" t="n">
-        <v>170300</v>
-      </c>
-      <c r="D133" t="n">
-        <v>170300</v>
-      </c>
-      <c r="E133" t="n">
-        <v>170300</v>
-      </c>
-      <c r="F133" t="n">
-        <v>3.2515</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-3192.210197599999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>170000</v>
-      </c>
-      <c r="C134" t="n">
-        <v>170700</v>
-      </c>
-      <c r="D134" t="n">
-        <v>170700</v>
-      </c>
-      <c r="E134" t="n">
-        <v>170000</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2.0167</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-3190.193497599999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>170700</v>
-      </c>
-      <c r="C135" t="n">
-        <v>170700</v>
-      </c>
-      <c r="D135" t="n">
-        <v>170700</v>
-      </c>
-      <c r="E135" t="n">
-        <v>170700</v>
-      </c>
-      <c r="F135" t="n">
-        <v>3.4992</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-3190.193497599999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>171100</v>
-      </c>
-      <c r="C136" t="n">
-        <v>170600</v>
-      </c>
-      <c r="D136" t="n">
-        <v>171100</v>
-      </c>
-      <c r="E136" t="n">
-        <v>170600</v>
-      </c>
-      <c r="F136" t="n">
-        <v>7.15953968</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-3197.353037279999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>170800</v>
-      </c>
-      <c r="C137" t="n">
-        <v>170800</v>
-      </c>
-      <c r="D137" t="n">
-        <v>170800</v>
-      </c>
-      <c r="E137" t="n">
-        <v>170800</v>
-      </c>
-      <c r="F137" t="n">
-        <v>3.6787</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-3193.674337279999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>171000</v>
-      </c>
-      <c r="C138" t="n">
-        <v>171200</v>
-      </c>
-      <c r="D138" t="n">
-        <v>171200</v>
-      </c>
-      <c r="E138" t="n">
-        <v>171000</v>
-      </c>
-      <c r="F138" t="n">
-        <v>133.17676448</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-3060.497572799999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>171700</v>
-      </c>
-      <c r="C139" t="n">
-        <v>172600</v>
-      </c>
-      <c r="D139" t="n">
-        <v>172600</v>
-      </c>
-      <c r="E139" t="n">
-        <v>171700</v>
-      </c>
-      <c r="F139" t="n">
-        <v>101.67095347</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-2958.826619329999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>171600</v>
-      </c>
-      <c r="C140" t="n">
-        <v>171100</v>
-      </c>
-      <c r="D140" t="n">
-        <v>171600</v>
-      </c>
-      <c r="E140" t="n">
-        <v>171000</v>
-      </c>
-      <c r="F140" t="n">
-        <v>106.3031</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-3065.129719329999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>171000</v>
-      </c>
-      <c r="C141" t="n">
-        <v>171400</v>
-      </c>
-      <c r="D141" t="n">
-        <v>171400</v>
-      </c>
-      <c r="E141" t="n">
-        <v>171000</v>
-      </c>
-      <c r="F141" t="n">
-        <v>77.83617911</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-2987.293540219999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>171100</v>
-      </c>
-      <c r="C142" t="n">
-        <v>171200</v>
-      </c>
-      <c r="D142" t="n">
-        <v>171500</v>
-      </c>
-      <c r="E142" t="n">
-        <v>171100</v>
-      </c>
-      <c r="F142" t="n">
-        <v>15.4348</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-3002.728340219999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>171200</v>
-      </c>
-      <c r="C143" t="n">
-        <v>171200</v>
-      </c>
-      <c r="D143" t="n">
-        <v>171200</v>
-      </c>
-      <c r="E143" t="n">
-        <v>171200</v>
-      </c>
-      <c r="F143" t="n">
-        <v>9.2561</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-3002.728340219999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>171200</v>
-      </c>
-      <c r="C144" t="n">
-        <v>171200</v>
-      </c>
-      <c r="D144" t="n">
-        <v>171300</v>
-      </c>
-      <c r="E144" t="n">
-        <v>171000</v>
-      </c>
-      <c r="F144" t="n">
-        <v>61.3611</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-3002.728340219999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>171200</v>
-      </c>
-      <c r="C145" t="n">
-        <v>171200</v>
-      </c>
-      <c r="D145" t="n">
-        <v>171200</v>
-      </c>
-      <c r="E145" t="n">
-        <v>171200</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.0156</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-3002.728340219999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>171000</v>
-      </c>
-      <c r="C146" t="n">
-        <v>171000</v>
-      </c>
-      <c r="D146" t="n">
-        <v>171000</v>
-      </c>
-      <c r="E146" t="n">
-        <v>171000</v>
-      </c>
-      <c r="F146" t="n">
-        <v>20</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-3022.728340219999</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>171000</v>
-      </c>
-      <c r="C147" t="n">
-        <v>171000</v>
-      </c>
-      <c r="D147" t="n">
-        <v>171000</v>
-      </c>
-      <c r="E147" t="n">
-        <v>169600</v>
-      </c>
-      <c r="F147" t="n">
-        <v>313.3256</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-3022.728340219999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>169900</v>
-      </c>
-      <c r="C148" t="n">
-        <v>169600</v>
-      </c>
-      <c r="D148" t="n">
-        <v>170200</v>
-      </c>
-      <c r="E148" t="n">
-        <v>169600</v>
-      </c>
-      <c r="F148" t="n">
-        <v>60.3851</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-3083.113440219999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>170100</v>
-      </c>
-      <c r="C149" t="n">
-        <v>168400</v>
-      </c>
-      <c r="D149" t="n">
-        <v>170100</v>
-      </c>
-      <c r="E149" t="n">
-        <v>168400</v>
-      </c>
-      <c r="F149" t="n">
-        <v>68.0223</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-3151.135740219999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>169200</v>
-      </c>
-      <c r="C150" t="n">
-        <v>168100</v>
-      </c>
-      <c r="D150" t="n">
-        <v>169200</v>
-      </c>
-      <c r="E150" t="n">
-        <v>168100</v>
-      </c>
-      <c r="F150" t="n">
-        <v>11.9061</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-3163.041840219999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>169000</v>
-      </c>
-      <c r="C151" t="n">
-        <v>169100</v>
-      </c>
-      <c r="D151" t="n">
-        <v>169100</v>
-      </c>
-      <c r="E151" t="n">
-        <v>169000</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.0786</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-3162.963240219999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>169000</v>
-      </c>
-      <c r="C152" t="n">
-        <v>169000</v>
-      </c>
-      <c r="D152" t="n">
-        <v>169000</v>
-      </c>
-      <c r="E152" t="n">
-        <v>169000</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-3163.043240219999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>169200</v>
-      </c>
-      <c r="C153" t="n">
-        <v>169200</v>
-      </c>
-      <c r="D153" t="n">
-        <v>169400</v>
-      </c>
-      <c r="E153" t="n">
-        <v>169200</v>
-      </c>
-      <c r="F153" t="n">
-        <v>7.6682</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-3155.375040219999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>169200</v>
-      </c>
-      <c r="C154" t="n">
-        <v>169200</v>
-      </c>
-      <c r="D154" t="n">
-        <v>169200</v>
-      </c>
-      <c r="E154" t="n">
-        <v>169200</v>
-      </c>
-      <c r="F154" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-3155.375040219999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>169200</v>
-      </c>
-      <c r="C155" t="n">
-        <v>169000</v>
-      </c>
-      <c r="D155" t="n">
-        <v>169200</v>
-      </c>
-      <c r="E155" t="n">
-        <v>169000</v>
-      </c>
-      <c r="F155" t="n">
-        <v>95.8409</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-3251.215940219999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>169500</v>
-      </c>
-      <c r="C156" t="n">
-        <v>169100</v>
-      </c>
-      <c r="D156" t="n">
-        <v>169500</v>
-      </c>
-      <c r="E156" t="n">
-        <v>169100</v>
-      </c>
-      <c r="F156" t="n">
-        <v>8.0228</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-3243.193140219999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>169100</v>
-      </c>
-      <c r="C157" t="n">
-        <v>169000</v>
-      </c>
-      <c r="D157" t="n">
-        <v>169400</v>
-      </c>
-      <c r="E157" t="n">
-        <v>169000</v>
-      </c>
-      <c r="F157" t="n">
-        <v>2.8492</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-3246.042340219999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>169000</v>
-      </c>
-      <c r="C158" t="n">
-        <v>169100</v>
-      </c>
-      <c r="D158" t="n">
-        <v>169100</v>
-      </c>
-      <c r="E158" t="n">
-        <v>169000</v>
-      </c>
-      <c r="F158" t="n">
-        <v>14.7423</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-3231.300040219999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>169100</v>
-      </c>
-      <c r="C159" t="n">
-        <v>169000</v>
-      </c>
-      <c r="D159" t="n">
-        <v>169100</v>
-      </c>
-      <c r="E159" t="n">
-        <v>169000</v>
-      </c>
-      <c r="F159" t="n">
-        <v>19.404</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-3250.704040219999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>168700</v>
-      </c>
-      <c r="C160" t="n">
-        <v>168700</v>
-      </c>
-      <c r="D160" t="n">
-        <v>168700</v>
-      </c>
-      <c r="E160" t="n">
-        <v>168700</v>
-      </c>
-      <c r="F160" t="n">
-        <v>3.1694</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-3253.873440219999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>169000</v>
-      </c>
-      <c r="C161" t="n">
-        <v>168600</v>
-      </c>
-      <c r="D161" t="n">
-        <v>169000</v>
-      </c>
-      <c r="E161" t="n">
-        <v>168600</v>
-      </c>
-      <c r="F161" t="n">
-        <v>7.1545</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-3261.027940219999</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>168600</v>
-      </c>
-      <c r="C162" t="n">
-        <v>168600</v>
-      </c>
-      <c r="D162" t="n">
-        <v>168600</v>
-      </c>
-      <c r="E162" t="n">
-        <v>168600</v>
-      </c>
-      <c r="F162" t="n">
-        <v>20</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-3261.027940219999</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>168600</v>
-      </c>
-      <c r="C163" t="n">
-        <v>168800</v>
-      </c>
-      <c r="D163" t="n">
-        <v>169000</v>
-      </c>
-      <c r="E163" t="n">
-        <v>168500</v>
-      </c>
-      <c r="F163" t="n">
-        <v>63.5195</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-3197.50844022</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>168500</v>
-      </c>
-      <c r="C164" t="n">
-        <v>168500</v>
-      </c>
-      <c r="D164" t="n">
-        <v>168500</v>
-      </c>
-      <c r="E164" t="n">
-        <v>168500</v>
-      </c>
-      <c r="F164" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-3209.40844022</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>168800</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>168300</v>
-      </c>
-      <c r="C165" t="n">
-        <v>168600</v>
-      </c>
-      <c r="D165" t="n">
-        <v>168700</v>
-      </c>
-      <c r="E165" t="n">
-        <v>168300</v>
-      </c>
-      <c r="F165" t="n">
-        <v>37.3525</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-3172.05594022</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>168500</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>168300</v>
-      </c>
-      <c r="C166" t="n">
-        <v>168300</v>
-      </c>
-      <c r="D166" t="n">
-        <v>168300</v>
-      </c>
-      <c r="E166" t="n">
-        <v>168300</v>
-      </c>
-      <c r="F166" t="n">
-        <v>72.93770000000001</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-3244.99364022</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>168600</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>168300</v>
-      </c>
-      <c r="C167" t="n">
-        <v>167900</v>
-      </c>
-      <c r="D167" t="n">
-        <v>168300</v>
-      </c>
-      <c r="E167" t="n">
-        <v>167900</v>
-      </c>
-      <c r="F167" t="n">
-        <v>70.91240000000001</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-3315.90604022</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>168300</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>167600</v>
-      </c>
-      <c r="C168" t="n">
-        <v>168000</v>
-      </c>
-      <c r="D168" t="n">
-        <v>168000</v>
-      </c>
-      <c r="E168" t="n">
-        <v>167500</v>
-      </c>
-      <c r="F168" t="n">
-        <v>82.1002</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-3233.80584022</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>167900</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>168000</v>
-      </c>
-      <c r="C169" t="n">
-        <v>168000</v>
-      </c>
-      <c r="D169" t="n">
-        <v>168100</v>
-      </c>
-      <c r="E169" t="n">
-        <v>168000</v>
-      </c>
-      <c r="F169" t="n">
-        <v>114.7098</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-3233.80584022</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>168000</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6371,11 +6001,9 @@
         <v>-3152.78584022</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>168000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6410,11 +6038,9 @@
         <v>-3158.73724022</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>168100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6449,11 +6075,9 @@
         <v>-3210.02984022</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>167900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -8689,9 +8313,11 @@
         <v>-2859.144869000001</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>168000</v>
+      </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -8726,9 +8352,11 @@
         <v>-2859.144869000001</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>168500</v>
+      </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8763,9 +8391,11 @@
         <v>-2883.784569000001</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>168500</v>
+      </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8800,9 +8430,11 @@
         <v>-2883.394569000001</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>168100</v>
+      </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -8837,9 +8469,11 @@
         <v>-2903.634569000001</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>168400</v>
+      </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
@@ -8874,9 +8508,11 @@
         <v>-2906.049069000001</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>167900</v>
+      </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
@@ -11992,11 +11628,9 @@
         <v>-3819.844369000003</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>166800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -12031,11 +11665,9 @@
         <v>-3839.444569000003</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>166700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -12226,9 +11858,11 @@
         <v>-3708.042569000002</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>166700</v>
+      </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
@@ -12692,9 +12326,11 @@
         <v>-3640.571469000002</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>168600</v>
+      </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
@@ -12729,9 +12365,11 @@
         <v>-3597.185569000002</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>168600</v>
+      </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
@@ -12766,9 +12404,11 @@
         <v>-3589.258169000002</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>168900</v>
+      </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
@@ -12803,9 +12443,11 @@
         <v>-3589.258169000002</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>169000</v>
+      </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
@@ -12840,9 +12482,11 @@
         <v>-3589.258169000002</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>169000</v>
+      </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
@@ -12877,9 +12521,11 @@
         <v>-3552.319269000001</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>169000</v>
+      </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -12914,9 +12560,11 @@
         <v>-3540.013548020002</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>169500</v>
+      </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
@@ -12951,9 +12599,11 @@
         <v>-3540.013548020002</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>170000</v>
+      </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
@@ -13765,16 +13415,18 @@
         <v>-1966.698784700001</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
       <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
@@ -13800,11 +13452,15 @@
         <v>-1585.073314200001</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13833,11 +13489,15 @@
         <v>-1962.599087720001</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13866,11 +13526,15 @@
         <v>-1849.031187720001</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13899,11 +13563,15 @@
         <v>-2054.836912820001</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13932,11 +13600,15 @@
         <v>-1957.074512820001</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13965,11 +13637,15 @@
         <v>-2206.985412820001</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13998,11 +13674,15 @@
         <v>-2592.054870260001</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14031,11 +13711,15 @@
         <v>-2508.580570260001</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14064,11 +13748,15 @@
         <v>-2225.099816730001</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14097,11 +13785,15 @@
         <v>-2438.763221560001</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14130,11 +13822,15 @@
         <v>-2258.679821560001</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14163,11 +13859,15 @@
         <v>-2140.70219529</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14196,11 +13896,15 @@
         <v>-2105.31169529</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14229,11 +13933,15 @@
         <v>-1961.65075514</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14262,11 +13970,15 @@
         <v>-1748.48606713</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14295,11 +14007,15 @@
         <v>-1428.31017116</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14328,11 +14044,15 @@
         <v>-1664.81777116</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14361,11 +14081,15 @@
         <v>-1574.47701657</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14394,11 +14118,15 @@
         <v>-1254.80301657</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14427,11 +14155,15 @@
         <v>-1453.904987930001</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14460,11 +14192,15 @@
         <v>-512.3966886300005</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14497,7 +14233,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14530,7 +14270,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14563,7 +14307,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14596,7 +14344,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14629,7 +14381,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14662,7 +14418,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14695,7 +14455,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14728,7 +14492,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14761,7 +14529,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14794,7 +14566,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14827,7 +14603,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14860,7 +14640,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14893,7 +14677,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14926,7 +14714,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14959,7 +14751,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14992,7 +14788,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15025,7 +14825,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15058,7 +14862,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15091,7 +14899,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15124,7 +14936,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15157,7 +14973,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15190,7 +15010,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15223,7 +15047,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15256,7 +15084,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15289,7 +15121,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15322,7 +15158,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15355,7 +15195,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15388,7 +15232,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15421,7 +15269,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15454,7 +15306,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15487,7 +15343,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15520,7 +15380,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15553,7 +15417,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15586,7 +15454,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15619,7 +15491,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15652,7 +15528,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15685,7 +15565,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15718,7 +15602,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15751,7 +15639,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15784,7 +15676,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15817,7 +15713,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15850,7 +15750,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15883,7 +15787,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15916,7 +15824,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15949,7 +15861,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15982,7 +15898,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16015,7 +15935,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16048,7 +15972,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16081,7 +16009,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16114,7 +16046,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16147,7 +16083,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16180,7 +16120,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16213,7 +16157,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16242,14 +16190,16 @@
         <v>4099.80906181</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="n">
-        <v>1</v>
-      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="inlineStr"/>
     </row>
     <row r="438">
@@ -16275,7 +16225,7 @@
         <v>3335.943761810001</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16770,7 +16720,7 @@
         <v>3490.56807331</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16869,7 +16819,7 @@
         <v>3577.48683807</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16902,7 +16852,7 @@
         <v>3577.48683807</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16935,7 +16885,7 @@
         <v>3284.62023567</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16968,7 +16918,7 @@
         <v>3543.8960341</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17001,7 +16951,7 @@
         <v>3849.18900204</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17034,7 +16984,7 @@
         <v>4055.85934087</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17067,7 +17017,7 @@
         <v>4240.03724087</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17100,7 +17050,7 @@
         <v>4159.89874087</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17133,7 +17083,7 @@
         <v>4159.89874087</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17166,7 +17116,7 @@
         <v>4390.39714087</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17199,7 +17149,7 @@
         <v>4326.27914087</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17232,7 +17182,7 @@
         <v>4209.73694087</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17265,7 +17215,7 @@
         <v>4187.65554087</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17298,7 +17248,7 @@
         <v>4198.49594087</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17331,7 +17281,7 @@
         <v>4501.55574087</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17364,7 +17314,7 @@
         <v>4406.63174087</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17397,7 +17347,7 @@
         <v>4406.63174087</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17430,7 +17380,7 @@
         <v>4406.63174087</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17463,7 +17413,7 @@
         <v>4468.287640869999</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17496,7 +17446,7 @@
         <v>4383.62044087</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17529,7 +17479,7 @@
         <v>4285.88624087</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17562,7 +17512,7 @@
         <v>4374.630640869999</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17595,7 +17545,7 @@
         <v>4501.049040869999</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17628,7 +17578,7 @@
         <v>4340.207640869999</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17661,7 +17611,7 @@
         <v>4360.277240869998</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17694,7 +17644,7 @@
         <v>4360.277240869998</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17727,7 +17677,7 @@
         <v>4360.277240869998</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17760,7 +17710,7 @@
         <v>4360.297340869998</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17793,7 +17743,7 @@
         <v>4246.110340869998</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17826,7 +17776,7 @@
         <v>4320.664860549999</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17859,7 +17809,7 @@
         <v>4320.664860549999</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17892,7 +17842,7 @@
         <v>4435.923960549999</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17925,7 +17875,7 @@
         <v>4473.428460549999</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17958,7 +17908,7 @@
         <v>4385.912060549998</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17991,7 +17941,7 @@
         <v>4385.912060549998</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18024,7 +17974,7 @@
         <v>4640.910260549998</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18057,7 +18007,7 @@
         <v>4981.740960549998</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18090,7 +18040,7 @@
         <v>5088.255985409998</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18123,7 +18073,7 @@
         <v>5704.769885409998</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18156,7 +18106,7 @@
         <v>6015.374112679998</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18189,7 +18139,7 @@
         <v>5793.097711929998</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18222,7 +18172,7 @@
         <v>5879.276711929998</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18255,7 +18205,7 @@
         <v>5711.698311929998</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18288,7 +18238,7 @@
         <v>5463.378111929997</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18321,7 +18271,7 @@
         <v>5296.034711929998</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18354,7 +18304,7 @@
         <v>5193.998711929998</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18387,7 +18337,7 @@
         <v>5193.998711929998</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18420,7 +18370,7 @@
         <v>5193.998711929998</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18453,7 +18403,7 @@
         <v>5193.998711929998</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18486,7 +18436,7 @@
         <v>5153.976160479998</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18519,7 +18469,7 @@
         <v>5090.008860479998</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18552,7 +18502,7 @@
         <v>4912.972059249998</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18585,7 +18535,7 @@
         <v>4680.612759249998</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18618,7 +18568,7 @@
         <v>4448.782359249998</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
